--- a/Data/model_outputs_baseline/number_of_dwellings/s_TH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_TH.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>15173.5570160381</v>
+        <v>14551.0467957338</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>15191.29274084142</v>
+        <v>14568.05489484309</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>15209.28331415619</v>
+        <v>14585.30738705099</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>15227.53237325168</v>
+        <v>14602.80776040419</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>15246.04360662352</v>
+        <v>14620.55955207411</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>15264.8207546968</v>
+        <v>14638.5663490312</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>15283.8676105383</v>
+        <v>14656.83178872793</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>15303.18802057808</v>
+        <v>14675.35955979073</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>15322.78588534038</v>
+        <v>14694.15340272099</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>15342.66516018418</v>
+        <v>14713.21711060515</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>15362.82985605315</v>
+        <v>14732.55452983394</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>15383.28404023561</v>
+        <v>14752.16956083115</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>15404.03183713416</v>
+        <v>14772.06615879167</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>15425.07742904537</v>
+        <v>14792.24833442922</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>15446.42505694948</v>
+        <v>14812.7201547336</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>15468.07902131043</v>
+        <v>14833.48574373797</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>15490.0436828861</v>
+        <v>14854.54928329577</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>15512.32346354902</v>
+        <v>14875.91501386786</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>15534.92284711777</v>
+        <v>14897.5872353197</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>15557.84638019887</v>
+        <v>14919.57030772876</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>15581.09867303968</v>
+        <v>14941.86865220245</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>15604.68440039213</v>
+        <v>14964.48675170635</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>15628.60830238755</v>
+        <v>14987.42915190322</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>15652.87518542272</v>
+        <v>15010.70046200263</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>15677.48992305726</v>
+        <v>15034.30535562159</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>15702.45745692241</v>
+        <v>15058.24857165604</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>15727.78279764154</v>
+        <v>15082.53491516353</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>15753.47102576224</v>
+        <v>15107.16925825715</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>15779.52729270035</v>
+        <v>15132.15654101081</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>15805.95682169606</v>
+        <v>15157.50177237609</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>15832.764908782</v>
+        <v>15183.21003111064</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>15859.95692376374</v>
+        <v>15209.28646671841</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>15887.53831121266</v>
+        <v>15235.73630040185</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>15915.51459147139</v>
+        <v>15262.56482602608</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>15943.891361672</v>
+        <v>15289.77741109525</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>15972.67429676699</v>
+        <v>15317.37949774132</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>16001.86915057336</v>
+        <v>15345.37660372524</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>16031.48175682973</v>
+        <v>15373.77432345073</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>16061.51803026696</v>
+        <v>15402.57832899092</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>16091.98396769201</v>
+        <v>15431.79437112786</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>16122.88564908555</v>
+        <v>15461.42828040497</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>16154.22923871341</v>
+        <v>15491.48596819296</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>16186.02098625179</v>
+        <v>15521.97342776885</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>16218.26722792669</v>
+        <v>15552.89673540872</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>16250.97438766766</v>
+        <v>15584.26205149402</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>16284.14897827579</v>
+        <v>15616.07562163174</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>16317.79760260652</v>
+        <v>15648.34377778859</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>16351.92695476702</v>
+        <v>15681.07293943939</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>16386.54382132869</v>
+        <v>15714.2696147297</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>16421.65508255462</v>
+        <v>15747.94040165302</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>16457.26771364248</v>
+        <v>15782.09198924259</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>16493.38878598281</v>
+        <v>15816.73115877817</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>16530.02546843295</v>
+        <v>15851.8647850076</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>16567.18502860689</v>
+        <v>15887.49983738381</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>16604.87483418113</v>
+        <v>15923.64338131706</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>16643.10235421666</v>
+        <v>15960.30257944271</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>16681.87516049755</v>
+        <v>15997.48469290489</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>16721.20092888601</v>
+        <v>16035.19708265594</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>16761.08744069432</v>
+        <v>16073.4472107721</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>16801.54258407377</v>
+        <v>16112.24264178543</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>16842.57435542087</v>
+        <v>16151.59104403235</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>16884.19086080092</v>
+        <v>16191.50019101877</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>16926.40031738935</v>
+        <v>16231.97796280238</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>16969.21105493081</v>
+        <v>16273.03234739178</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>17012.63151721648</v>
+        <v>16314.67144216326</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>17056.67026357968</v>
+        <v>16356.90345529498</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>17101.33597040989</v>
+        <v>16399.73670721897</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>17146.63743268582</v>
+        <v>16443.17963209119</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>17192.58356552732</v>
+        <v>16487.24077927989</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>17239.18340576668</v>
+        <v>16531.92881487234</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>17286.44611353939</v>
+        <v>16577.25252320037</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>17334.38097389477</v>
+        <v>16623.22080838497</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>17382.99739842654</v>
+        <v>16669.8426958999</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>17432.30492692387</v>
+        <v>16717.12733415501</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>17482.31322904292</v>
+        <v>16765.08399609923</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>17533.03210599919</v>
+        <v>16813.72208084348</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>17584.47149228126</v>
+        <v>16863.05111530409</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>17636.64145738573</v>
+        <v>16913.08075586659</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>17689.55220757411</v>
+        <v>16963.82079007049</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>17743.21408765169</v>
+        <v>17015.28113831516</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>17797.63758276877</v>
+        <v>17067.47185558726</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>17852.83332024467</v>
+        <v>17120.40313320978</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>17908.81207141477</v>
+        <v>17174.08530061336</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>17965.58475350082</v>
+        <v>17228.52882712994</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>18023.16243150522</v>
+        <v>17283.7443238092</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>18081.5563201291</v>
+        <v>17339.74254525806</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>18140.77778571508</v>
+        <v>17396.53439150365</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>18200.83834821485</v>
+        <v>17454.13090988023</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>18261.7496831819</v>
+        <v>17512.54329694012</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>18323.52362378992</v>
+        <v>17571.78290038933</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>18386.17216287736</v>
+        <v>17631.86122104824</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>18449.70745501833</v>
+        <v>17692.78991483748</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>18514.14181862051</v>
+        <v>17754.58079478986</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>18579.48773805047</v>
+        <v>17817.24583308844</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>18645.75786578677</v>
+        <v>17880.79716313128</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>18712.96502460141</v>
+        <v>17945.24708162347</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>18781.12220977016</v>
+        <v>18010.60805069669</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>18850.24259131222</v>
+        <v>18076.89270005704</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>18920.33951625975</v>
+        <v>18144.11382916147</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>18991.42651095783</v>
+        <v>18212.28440942334</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>19063.51728339545</v>
+        <v>18281.41758644779</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>19136.62572556812</v>
+        <v>18351.52668229746</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>19210.76591587255</v>
+        <v>18422.62519778885</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>19285.95212153431</v>
+        <v>18494.72681482048</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>19362.19880106889</v>
+        <v>18567.84539873289</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>19439.52060677694</v>
+        <v>18641.99500070159</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>19517.93238727434</v>
+        <v>18717.18986016325</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>19597.44919005785</v>
+        <v>18793.44440727617</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>19678.08626410711</v>
+        <v>18870.77326541547</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>19759.85906252368</v>
+        <v>18949.19125370391</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>19842.78324520808</v>
+        <v>19028.71338957904</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>19926.87468157542</v>
+        <v>19109.35489139753</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>20012.14945331083</v>
+        <v>19191.13118107739</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>20098.62385716515</v>
+        <v>19274.05788677913</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>20186.31440779229</v>
+        <v>19358.15084562658</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>20275.23784062876</v>
+        <v>19443.42610646838</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>20365.41111481675</v>
+        <v>19529.89993268113</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>20456.85141617162</v>
+        <v>19617.58880501504</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>20549.5761601948</v>
+        <v>19706.50942448334</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>20643.60299513342</v>
+        <v>19796.67871529632</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>20738.94980508772</v>
+        <v>19888.11382784129</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>20835.63471316744</v>
+        <v>19980.83214170945</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>20933.67608469848</v>
+        <v>20074.85126877097</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>21033.09253048109</v>
+        <v>20170.18905629958</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>21133.902910101</v>
+        <v>20266.8635901478</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>21236.12633529487</v>
+        <v>20364.89319797436</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>21339.7821733715</v>
+        <v>20464.29645252501</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>21444.89005069032</v>
+        <v>20565.09217496833</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>21551.46985619886</v>
+        <v>20667.29943828805</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>21659.54174503052</v>
+        <v>20770.93757073325</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>21769.12614216476</v>
+        <v>20876.02615932834</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>21880.24374615118</v>
+        <v>20982.58505344442</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>21992.9155328994</v>
+        <v>21090.6343684336</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>22107.16275953675</v>
+        <v>21200.1944893285</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>22223.00696833559</v>
+        <v>21311.2860746084</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>22340.46999071244</v>
+        <v>21423.93006003432</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>22459.57395130113</v>
+        <v>21538.14766255503</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>22580.34127210191</v>
+        <v>21653.96038428601</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>22702.79467670924</v>
+        <v>21771.39001656372</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>22826.95719462032</v>
+        <v>21890.45864407741</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>22952.85216562705</v>
+        <v>22011.18864908085</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>23080.50324429393</v>
+        <v>22133.60271568663</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>23209.93440452475</v>
+        <v>22257.72383424531</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>23341.16994422062</v>
+        <v>22383.57530581257</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>23474.23449003245</v>
+        <v>22511.18074670652</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>23609.15300221095</v>
+        <v>22640.56409315884</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>23745.95077955705</v>
+        <v>22771.74960606207</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>23884.6534644762</v>
+        <v>22904.76187581657</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>24025.28704814007</v>
+        <v>23039.6258272804</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>24167.87787575871</v>
+        <v>23176.36672482527</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>24312.45265196737</v>
+        <v>23315.01017750228</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>24459.03844633137</v>
+        <v>23455.58214432099</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>24607.66269897325</v>
+        <v>23598.10893964573</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>24758.3532263261</v>
+        <v>23742.61723871281</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>24911.13822701725</v>
+        <v>23889.13408327294</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>25066.04628788721</v>
+        <v>24037.68688736315</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>25223.10639014768</v>
+        <v>24188.3034432122</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>25382.34791568406</v>
+        <v>24341.01192728451</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>25543.80065350696</v>
+        <v>24495.84090646699</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>25707.49480635801</v>
+        <v>24652.81934440386</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>25873.46099747514</v>
+        <v>24811.97660798435</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>26041.73027752298</v>
+        <v>24973.34247398876</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>26212.33413169386</v>
+        <v>25136.94713589824</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>26385.30448698551</v>
+        <v>25302.82121087375</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>26560.67371966131</v>
+        <v>25470.99574691038</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>26738.4746628998</v>
+        <v>25641.50223017296</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>26918.74061463961</v>
+        <v>25814.37259251917</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>27101.50534562673</v>
+        <v>25989.63921921668</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>27286.8031076714</v>
+        <v>26167.33495686124</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>27474.66864212142</v>
+        <v>26347.49312150242</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>27665.13718855979</v>
+        <v>26530.1475069844</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>27858.24449373434</v>
+        <v>26715.33239350923</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>28054.02682072736</v>
+        <v>26903.08255643028</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>28252.5209583736</v>
+        <v>27093.4332752839</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>28453.76423093524</v>
+        <v>27286.4203430674</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>28657.79450804279</v>
+        <v>27482.08007577217</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>28864.65021491104</v>
+        <v>27680.44932218044</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>29074.37034283957</v>
+        <v>27881.56547393509</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>29286.99446000767</v>
+        <v>28085.46647589162</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>29502.56272257373</v>
+        <v>28292.1908367622</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>29721.11588608971</v>
+        <v>28501.77764006186</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>29942.69531724127</v>
+        <v>28714.26655536699</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>30167.34300592478</v>
+        <v>28929.69784989681</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>30395.10157767276</v>
+        <v>29148.11240042912</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>30626.01430643945</v>
+        <v>29369.55170556129</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>30860.12512775871</v>
+        <v>29594.05789832832</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>31097.4786522869</v>
+        <v>29821.67375919018</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>31338.12017974351</v>
+        <v>30052.44272940045</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>31582.09571326292</v>
+        <v>30286.40892476933</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>31829.4519741711</v>
+        <v>30523.61714983405</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>32080.23641720085</v>
+        <v>30764.11291244994</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>32334.49724616071</v>
+        <v>31007.94243881653</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>32592.28343007187</v>
+        <v>31255.15268895235</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>32853.64471978844</v>
+        <v>31505.7913726334</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>33118.63166511698</v>
+        <v>31759.90696581031</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>33387.295632451</v>
+        <v>32017.54872751936</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>33659.68882293721</v>
+        <v>32278.76671730347</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>33935.86429119018</v>
+        <v>32543.61181315904</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>34215.87596457277</v>
+        <v>32812.13573002542</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>34499.77866306012</v>
+        <v>33084.3910388339</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>34787.6281197052</v>
+        <v>33360.4311861337</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>35079.48100172438</v>
+        <v>33640.31051431247</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>35375.39493222207</v>
+        <v>33924.0842824296</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>35675.42851257374</v>
+        <v>34211.80868768106</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>35979.64134548686</v>
+        <v>34503.54088751416</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>36288.09405876003</v>
+        <v>34799.33902241191</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>36600.84832976061</v>
+        <v>35099.26223936657</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>36917.96691064189</v>
+        <v>35403.3707160621</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>37239.51365432065</v>
+        <v>35711.72568578608</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>37565.55354123704</v>
+        <v>36024.38946309167</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>37896.15270691828</v>
+        <v>36341.4254702305</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>38231.37847036854</v>
+        <v>36662.89826437789</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>38571.29936330731</v>
+        <v>36988.87356567156</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>38915.98516027913</v>
+        <v>37319.41828608618</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>39265.50690965742</v>
+        <v>37654.60055916524</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>39619.93696556578</v>
+        <v>37994.48977063265</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>39979.34902073989</v>
+        <v>38339.15658990658</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>40343.81814035373</v>
+        <v>38688.67300253778</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>40713.42079683331</v>
+        <v>39043.11234359522</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>41088.23490568246</v>
+        <v>39402.5493320219</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>41468.33986234307</v>
+        <v>39767.06010598301</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>41853.81658011481</v>
+        <v>40136.72225922985</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>42244.74752915691</v>
+        <v>40511.61487850163</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>42641.2167765964</v>
+        <v>40891.81858198813</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>43043.3100277651</v>
+        <v>41277.41555887499</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>43451.11466858958</v>
+        <v>41668.48960999447</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>43864.71980915589</v>
+        <v>42065.126189603</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>44284.21632847202</v>
+        <v>42467.41244830717</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>44709.69692044963</v>
+        <v>42875.43727715901</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>45141.25614112699</v>
+        <v>43289.29135294159</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>45578.99045715296</v>
+        <v>43709.06718466385</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>46022.99829555275</v>
+        <v>44134.8591612847</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>46473.38009479448</v>
+        <v>44566.76360068451</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>46930.23835717422</v>
+        <v>45004.87879990109</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>47393.67770253753</v>
+        <v>45449.30508664701</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>47863.80492335249</v>
+        <v>45900.14487212356</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>48340.72904114967</v>
+        <v>46357.50270514491</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>48824.56136434168</v>
+        <v>46821.48532758564</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>49315.41554743422</v>
+        <v>47292.20173116273</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>49813.40765163808</v>
+        <v>47769.76321556068</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>50318.6562068905</v>
+        <v>48254.28344790858</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>50831.28227529132</v>
+        <v>48745.8785236136</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>51351.40951595754</v>
+        <v>49244.6670285548</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>51879.16425129749</v>
+        <v>49750.77010263856</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>52414.67553470306</v>
+        <v>50264.31150471333</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>52958.07521965531</v>
+        <v>50785.41767884044</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>53509.49803023642</v>
+        <v>51314.21782191301</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>54069.08163303664</v>
+        <v>51850.84395261294</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>54636.96671044212</v>
+        <v>52395.43098169201</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>55213.29703528569</v>
+        <v>52948.11678356004</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>55798.2195468376</v>
+        <v>53509.04226915803</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>56391.88442811051</v>
+        <v>54078.35146009167</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>56994.44518444723</v>
+        <v>54656.19156399485</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>57606.05872335462</v>
+        <v>55242.71305108843</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>58226.8854355432</v>
+        <v>55838.06973189498</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>58857.08927712507</v>
+        <v>56442.41883606459</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>59496.83785291769</v>
+        <v>57055.92109226088</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>60146.30250079445</v>
+        <v>57678.74080905112</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>60805.65837701709</v>
+        <v>58311.04595673778</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>61475.08454247709</v>
+        <v>58953.00825006169</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>62154.76404976716</v>
+        <v>59604.80323170149</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>62844.88403099526</v>
+        <v>60266.61035648489</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>63545.6357862459</v>
+        <v>60938.61307622072</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>64257.21487258606</v>
+        <v>61620.99892505349</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>64979.82119350196</v>
+        <v>62313.95960523062</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>65713.65908864647</v>
+        <v>63017.69107316816</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>66458.9374237656</v>
+        <v>63732.39362568784</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>67215.86968066241</v>
+        <v>64458.27198629003</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>67984.67404704742</v>
+        <v>65195.53539131816</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>68765.57350611271</v>
+        <v>65944.39767585776</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>69558.7959256561</v>
+        <v>66705.07735920436</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>70364.57414656985</v>
+        <v>67477.7977297217</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>71183.14607049627</v>
+        <v>68262.78692890139</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>72014.75474644036</v>
+        <v>69060.27803442204</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>72859.64845611606</v>
+        <v>69870.50914199409</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>73718.08079779003</v>
+        <v>70693.72344576388</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>74590.31076837268</v>
+        <v>71530.16931703682</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>75476.60284349235</v>
+        <v>72380.1003810664</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>76377.22705527357</v>
+        <v>73243.77559164143</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>77292.45906752632</v>
+        <v>74121.45930319089</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>78222.58024803779</v>
+        <v>75013.42134010946</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>79167.87773764199</v>
+        <v>75919.93706299379</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>80128.64451572839</v>
+        <v>76841.28743146342</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>81105.17946183335</v>
+        <v>77777.7590632254</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>82097.78741294355</v>
+        <v>78729.64428902682</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>83106.7792161227</v>
+        <v>79697.24120312238</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>84132.47177605832</v>
+        <v>80680.85370887064</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>85175.18809710769</v>
+        <v>81680.79155905487</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>86235.25731940646</v>
+        <v>82697.37039051027</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>87313.01474858688</v>
+        <v>83730.91175262321</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>88408.80187863667</v>
+        <v>84781.74312925192</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>89522.96640741322</v>
+        <v>85850.19795360445</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>90655.86224431344</v>
+        <v>86936.61561559387</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>91807.84950958229</v>
+        <v>88041.341461175</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>92979.29452473061</v>
+        <v>89164.72678315555</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>94170.56979351721</v>
+        <v>90307.12880295829</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>95382.05397293705</v>
+        <v>91468.91064279959</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>96614.1318336445</v>
+        <v>92650.44128773618</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>97867.19420922956</v>
+        <v>93852.0955370226</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>99141.63793375365</v>
+        <v>95074.2539442094</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>100437.8657669404</v>
+        <v>96317.30274540326</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>101756.2863064125</v>
+        <v>97581.63377510426</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>103097.3138863541</v>
+        <v>98867.64436902603</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>104461.3684619762</v>
+        <v>100175.7372533004</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>105848.8754791562</v>
+        <v>101506.3204194661</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>107260.2657286249</v>
+        <v>102859.806984637</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>108695.9751840682</v>
+        <v>104236.6150362462</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>110156.4448235201</v>
+        <v>105637.1674607668</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>111642.1204334242</v>
+        <v>107061.8917558114</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>113153.4523947471</v>
+        <v>108511.2198250211</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>114690.8954505413</v>
+        <v>109985.5877551638</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>116254.9084543658</v>
+        <v>111485.4355748762</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>117845.9540989855</v>
+        <v>113011.2069944938</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>119464.4986247954</v>
+        <v>114563.3491264372</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>121111.0115074329</v>
+        <v>116142.3121856404</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>122785.9651240702</v>
+        <v>117748.5491695335</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>124489.834397907</v>
+        <v>119382.5155171214</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>126223.0964204177</v>
+        <v>121044.6687467276</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>127986.2300509432</v>
+        <v>122735.4680720138</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>129779.7154932618</v>
+        <v>124455.3739959223</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>131604.0338488159</v>
+        <v>126204.8478822315</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>133459.6666463219</v>
+        <v>127984.3515044651</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>135347.0953475462</v>
+        <v>129794.3465719431</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>137266.8008290882</v>
+        <v>131635.2942328258</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>139219.2628400731</v>
+        <v>133507.6545540547</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>141204.9594357255</v>
+        <v>135411.8859781649</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>143224.3663868682</v>
+        <v>137348.4447570094</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>145277.9565654654</v>
+        <v>139317.7843625115</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>147366.1993064113</v>
+        <v>141320.3548746358</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>149489.5597458491</v>
+        <v>143356.6023468542</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>151648.4981363982</v>
+        <v>145426.968149466</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>153843.4691397563</v>
+        <v>147531.8882912221</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>156074.921097244</v>
+        <v>149671.7927197958</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>158343.2952789589</v>
+        <v>151847.1046017414</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>160649.0251123113</v>
+        <v>154058.2395826802</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>162992.5353908212</v>
+        <v>156305.6050285567</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>165374.2414641646</v>
+        <v>158589.5992489147</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>167794.5484105711</v>
+        <v>160910.6107032477</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>170253.850192791</v>
+        <v>163269.0171915938</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>172752.5287989615</v>
+        <v>165665.185030648</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>175290.9533698209</v>
+        <v>168099.4682167839</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>177869.4793138374</v>
+        <v>170572.2075774849</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>180488.4474119339</v>
+        <v>173083.7299127986</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>183148.1829136074</v>
+        <v>175634.3471285391</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>185848.994626355</v>
+        <v>178224.3553630695</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>188591.1740004319</v>
+        <v>180854.0341096095</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>191374.9942110733</v>
+        <v>183523.6453361095</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>194200.7092404229</v>
+        <v>186233.4326048438</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>197068.552961502</v>
+        <v>188983.6201939613</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>199978.7382266617</v>
+        <v>191774.4122233341</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>202931.4559630365</v>
+        <v>194605.991787122</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>205926.8742776128</v>
+        <v>197478.5200955553</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>208965.1375745891</v>
+        <v>200392.1356285074</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>212046.3656877815</v>
+        <v>203346.9533034932</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>215170.6530308767</v>
+        <v>206343.0636607841</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>218338.0677683871</v>
+        <v>209380.5320683761</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>221548.6510101971</v>
+        <v>212306.0675869567</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>224802.4160326119</v>
+        <v>215270.9788494736</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>228099.3475288386</v>
+        <v>218275.2463890847</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>231439.4008918207</v>
+        <v>221318.8236739972</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>234822.5015323433</v>
+        <v>224401.636476722</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>238248.5442352885</v>
+        <v>227523.5822782556</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>241717.3925568889</v>
+        <v>230684.5297098125</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>245228.8782657637</v>
+        <v>233884.3180346694</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>248782.8008304528</v>
+        <v>237122.7566726258</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>252378.9269560832</v>
+        <v>240399.624769508</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>256016.9901726918</v>
+        <v>243714.6708140495</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>259696.6904776253</v>
+        <v>247067.6123043823</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>263417.694034295</v>
+        <v>250458.1354662497</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>267179.6329294289</v>
+        <v>253885.8950249262</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>270982.1049908024</v>
+        <v>257350.5140326858</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>274824.6736672521</v>
+        <v>260845.6685266604</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>278706.8679725995</v>
+        <v>264376.7690653639</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>282628.1824949082</v>
+        <v>267943.3436101832</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>286588.0774722906</v>
+        <v>271544.8883820063</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>290585.9789362645</v>
+        <v>275180.8679876975</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>294621.2789234265</v>
+        <v>278850.7156094175</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>298693.3357559761</v>
+        <v>282553.8332573247</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>302801.4743913791</v>
+        <v>286289.592085972</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>306944.9868412097</v>
+        <v>290057.3327744915</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>311123.1326589564</v>
+        <v>293856.3659704289</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>315335.1394963245</v>
+        <v>298283.4420840321</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>319580.2037273003</v>
+        <v>302745.7140782654</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>323857.491138997</v>
+        <v>307242.3413405333</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>328166.137688034</v>
+        <v>311772.45326671</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>332505.2503209576</v>
+        <v>316335.1501571129</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>336873.9078569553</v>
+        <v>320929.5041793583</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>341271.1619308786</v>
+        <v>325554.5603960973</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>345696.0379943536</v>
+        <v>330209.3378553724</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>350147.53637253</v>
+        <v>334892.8307410927</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>354624.633373811</v>
+        <v>339604.0095808847</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>359126.2824496942</v>
+        <v>345067.3214657908</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>363651.4154016756</v>
+        <v>350561.3891552473</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>368198.9436319792</v>
+        <v>356085.0301195187</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>372767.7594347285</v>
+        <v>361637.0429509954</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>377356.7373240208</v>
+        <v>367216.2090621747</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>381964.7353952426</v>
+        <v>372821.2944263889</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>386590.5967158578</v>
+        <v>378451.0513565575</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>391233.150741801</v>
+        <v>384104.2203170544</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>395891.2147555477</v>
+        <v>389779.5317636259</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>400563.5953218641</v>
+        <v>395475.7080061258</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>405249.0897572206</v>
+        <v>400884.2593203443</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>409946.4876088271</v>
+        <v>406309.3937186967</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>414654.5721392551</v>
+        <v>411749.8534635314</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>419372.1218126337</v>
+        <v>417204.3793623258</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>424097.9117784511</v>
+        <v>422671.7125459157</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>428830.7153490399</v>
+        <v>428150.5962358721</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>433569.3054669213</v>
+        <v>433639.7774954491</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>438312.4561582451</v>
+        <v>439138.008958465</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>443058.9439687051</v>
+        <v>444644.0505304714</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>447807.5493783991</v>
+        <v>450156.6710565262</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>452557.0581922643</v>
+        <v>456176.0530371674</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>457306.2629028492</v>
+        <v>462201.8092152662</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>462053.9640223521</v>
+        <v>468232.7152756916</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>466798.9713810257</v>
+        <v>474267.5651866017</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>471540.105389226</v>
+        <v>480305.1727723356</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>476276.1982605637</v>
+        <v>486344.3732133445</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>481006.0951938216</v>
+        <v>492384.0244669778</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>485728.6555114887</v>
+        <v>498423.0086029926</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>490442.753752973</v>
+        <v>504460.2330477288</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>495147.2807207491</v>
+        <v>510494.6317309682</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>499841.1444779171</v>
+        <v>516525.1661296303</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>504523.2712958414</v>
+        <v>522550.8262025589</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>509192.6065507577</v>
+        <v>528570.6312108506</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>513848.1155684255</v>
+        <v>534583.6304183317</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>518488.7844161169</v>
+        <v>540588.903667039</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>523113.6206414256</v>
+        <v>546585.5618228143</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>527721.6539575646</v>
+        <v>552572.7470864146</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>532311.9368750197</v>
+        <v>558549.6331659054</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>536883.5452795975</v>
+        <v>564515.4253064821</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>541435.5789570778</v>
+        <v>570469.3601743192</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>545967.1620648555</v>
+        <v>576410.7055915522</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>550477.4435510979</v>
+        <v>582338.7601200455</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>554965.5975221134</v>
+        <v>588252.8524922363</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>559430.823558736</v>
+        <v>594152.3408880044</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>563872.3469826968</v>
+        <v>600036.6120572891</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>568289.4190740366</v>
+        <v>605905.0802889547</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>572681.3172407557</v>
+        <v>611757.1862273099</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>577047.3451419724</v>
+        <v>617592.3955385836</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>581386.8327659714</v>
+        <v>623410.1974306828</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>585699.1364645964</v>
+        <v>629210.1030305849</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>589983.6389455055</v>
+        <v>634991.6436248131</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>594239.7492238868</v>
+        <v>640754.3687695884</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>598466.9025352706</v>
+        <v>646497.8442784162</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>602664.5602111229</v>
+        <v>652221.6500960659</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>606832.2095189424</v>
+        <v>657925.3780691078</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>610969.3634686016</v>
+        <v>663608.6296243892</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>615075.560586708</v>
+        <v>669271.0133680464</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>619150.3646607484</v>
+        <v>674912.142618799</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>623193.3644548047</v>
+        <v>680531.632890447</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>627204.1733986163</v>
+        <v>686129.0993395575</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_TH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_TH.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>14551.0467957338</v>
+        <v>1471.732009315044</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>14568.05489484309</v>
+        <v>1473.452254203823</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>14585.30738705099</v>
+        <v>1475.197217667914</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>14602.80776040419</v>
+        <v>1476.967252497738</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>14620.55955207411</v>
+        <v>1478.76271645233</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>14638.5663490312</v>
+        <v>1480.583972327527</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>14656.83178872793</v>
+        <v>1482.431388025054</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>14675.35955979073</v>
+        <v>1484.30533662251</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>14694.15340272099</v>
+        <v>1486.206196444266</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>14713.21711060515</v>
+        <v>1488.134351133286</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>14732.55452983394</v>
+        <v>1490.090189723875</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>14752.16956083115</v>
+        <v>1492.074106715384</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>14772.06615879167</v>
+        <v>1494.086502146863</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>14792.24833442922</v>
+        <v>1496.127781672684</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>14812.7201547336</v>
+        <v>1498.198356639135</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>14833.48574373797</v>
+        <v>1500.298644162021</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>14854.54928329577</v>
+        <v>1502.429067205247</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>14875.91501386786</v>
+        <v>1504.590054660429</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>14897.5872353197</v>
+        <v>1506.782041427524</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>14919.57030772876</v>
+        <v>1509.005468496496</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>14941.86865220245</v>
+        <v>1511.260783030037</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>14964.48675170635</v>
+        <v>1513.548438447346</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>14987.42915190322</v>
+        <v>1515.868894508977</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>15010.70046200263</v>
+        <v>1518.222617402786</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>15034.30535562159</v>
+        <v>1520.610079830966</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>15058.24857165604</v>
+        <v>1523.031761098197</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>15082.53491516353</v>
+        <v>1525.488147200926</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>15107.16925825715</v>
+        <v>1527.979730917773</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>15132.15654101081</v>
+        <v>1530.507011901102</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>15157.50177237609</v>
+        <v>1533.070496769745</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>15183.21003111064</v>
+        <v>1535.67069920291</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>15209.28646671841</v>
+        <v>1538.308140035281</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>15235.73630040185</v>
+        <v>1540.983347353313</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>15262.56482602608</v>
+        <v>1543.696856592764</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>15289.77741109525</v>
+        <v>1546.449210637439</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>15317.37949774132</v>
+        <v>1549.240959919204</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>15345.37660372524</v>
+        <v>1552.072662519239</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>15373.77432345073</v>
+        <v>1554.944884270586</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>15402.57832899092</v>
+        <v>1557.858198861974</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>15431.79437112786</v>
+        <v>1560.813187942968</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>15461.42828040497</v>
+        <v>1563.810441230413</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>15491.48596819296</v>
+        <v>1566.850556616238</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>15521.97342776885</v>
+        <v>1569.934140276604</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>15552.89673540872</v>
+        <v>1573.061806782414</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>15584.26205149402</v>
+        <v>1576.234179211218</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>15616.07562163174</v>
+        <v>1579.451889260503</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>15648.34377778859</v>
+        <v>1582.715577362416</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>15681.07293943939</v>
+        <v>1586.025892799905</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>15714.2696147297</v>
+        <v>1589.383493824315</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>15747.94040165302</v>
+        <v>1592.789047774454</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>15782.09198924259</v>
+        <v>1596.243231197137</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>15816.73115877817</v>
+        <v>1599.746729969235</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>15851.8647850076</v>
+        <v>1603.300239421237</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>15887.49983738381</v>
+        <v>1606.904464462356</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>15923.64338131706</v>
+        <v>1610.560119707191</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>15960.30257944271</v>
+        <v>1614.267929603944</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>15997.48469290489</v>
+        <v>1618.028628564263</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>16035.19708265594</v>
+        <v>1621.842961094666</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>16073.4472107721</v>
+        <v>1625.711681929614</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>16112.24264178543</v>
+        <v>1629.635556166225</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>16151.59104403235</v>
+        <v>1633.615359400667</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>16191.50019101877</v>
+        <v>1637.651877866239</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>16231.97796280238</v>
+        <v>1641.745908573167</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>16273.03234739178</v>
+        <v>1645.898259450127</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>16314.67144216326</v>
+        <v>1650.109749487535</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>16356.90345529498</v>
+        <v>1654.381208882607</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>16399.73670721897</v>
+        <v>1658.713479186216</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>16443.17963209119</v>
+        <v>1663.107413451583</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>16487.24077927989</v>
+        <v>1667.563876384804</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>16531.92881487234</v>
+        <v>1672.083744497254</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>16577.25252320037</v>
+        <v>1676.667906259883</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>16623.22080838497</v>
+        <v>1681.317262259434</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>16669.8426958999</v>
+        <v>1686.0327253566</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>16717.12733415501</v>
+        <v>1690.815220846157</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>16765.08399609923</v>
+        <v>1695.6656866191</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>16813.72208084348</v>
+        <v>1700.585073326789</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>16863.05111530409</v>
+        <v>1705.574344547163</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>16913.08075586659</v>
+        <v>1710.634476953029</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>16963.82079007049</v>
+        <v>1715.766460482456</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>17015.28113831516</v>
+        <v>1720.971298511318</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>17067.47185558726</v>
+        <v>1726.250008028008</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>17120.40313320978</v>
+        <v>1731.603619810347</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>17174.08530061336</v>
+        <v>1737.03317860473</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>17228.52882712994</v>
+        <v>1742.539743307549</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>17283.7443238092</v>
+        <v>1748.124387148905</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>17339.74254525806</v>
+        <v>1753.788197878671</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>17396.53439150365</v>
+        <v>1759.532277954906</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>17454.13090988023</v>
+        <v>1765.35774473471</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>17512.54329694012</v>
+        <v>1771.265730667498</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>17571.78290038933</v>
+        <v>1777.257383490778</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>17631.86122104824</v>
+        <v>1783.333866428454</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>17692.78991483748</v>
+        <v>1789.496358391691</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>17754.58079478986</v>
+        <v>1795.746054182397</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>17817.24583308844</v>
+        <v>1802.084164699367</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>17880.79716313128</v>
+        <v>1808.511917147117</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>17945.24708162347</v>
+        <v>1815.03055524747</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>18010.60805069669</v>
+        <v>1821.641339453944</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>18076.89270005704</v>
+        <v>1828.345547168984</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>18144.11382916147</v>
+        <v>1835.144472964088</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>18212.28440942334</v>
+        <v>1842.039428802894</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>18281.41758644779</v>
+        <v>1849.03174426726</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>18351.52668229746</v>
+        <v>1856.122766786433</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>18422.62519778885</v>
+        <v>1863.313861869307</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>18494.72681482048</v>
+        <v>1870.606413339895</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>18567.84539873289</v>
+        <v>1878.001823576032</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>18641.99500070159</v>
+        <v>1885.501513751401</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>18717.18986016325</v>
+        <v>1893.106924080926</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>18793.44440727617</v>
+        <v>1900.819514069627</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>18870.77326541547</v>
+        <v>1908.640762764997</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>18949.19125370391</v>
+        <v>1916.572169012966</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>19028.71338957904</v>
+        <v>1924.615251717563</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>19109.35489139753</v>
+        <v>1932.771550104309</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>19191.13118107739</v>
+        <v>1941.042623987471</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>19274.05788677913</v>
+        <v>1949.430054041237</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>19358.15084562658</v>
+        <v>1957.935442074907</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>19443.42610646838</v>
+        <v>1966.560411312197</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>19529.89993268113</v>
+        <v>1975.306606674758</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>19617.58880501504</v>
+        <v>1984.175695069993</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>19706.50942448334</v>
+        <v>1993.169365683297</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>19796.67871529632</v>
+        <v>2002.289330274822</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>19888.11382784129</v>
+        <v>2011.537323480865</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>19980.83214170945</v>
+        <v>2020.915103120023</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>20074.85126877097</v>
+        <v>2030.424450504218</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>20170.18905629958</v>
+        <v>2040.067170754713</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>20266.8635901478</v>
+        <v>2049.845093123278</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>20364.89319797436</v>
+        <v>2059.76007131861</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>20464.29645252501</v>
+        <v>2069.813983838166</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>20565.09217496833</v>
+        <v>2080.00873430556</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>20667.29943828805</v>
+        <v>2090.346251813663</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>20770.93757073325</v>
+        <v>2100.828491273572</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>20876.02615932834</v>
+        <v>2111.457433769618</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>20982.58505344442</v>
+        <v>2122.235086920581</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>21090.6343684336</v>
+        <v>2133.163485247275</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>21200.1944893285</v>
+        <v>2144.244690546727</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>21311.2860746084</v>
+        <v>2155.480792273093</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>21423.93006003432</v>
+        <v>2166.873907925552</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>21538.14766255503</v>
+        <v>2178.426183443368</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>21653.96038428601</v>
+        <v>2190.139793608333</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>21771.39001656372</v>
+        <v>2202.016942454824</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>21890.45864407741</v>
+        <v>2214.059863687713</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>22011.18864908085</v>
+        <v>2226.270821108345</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>22133.60271568663</v>
+        <v>2238.652109048878</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>22257.72383424531</v>
+        <v>2251.206052815204</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>22383.57530581257</v>
+        <v>2263.935009138761</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>22511.18074670652</v>
+        <v>2276.841366637484</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>22640.56409315884</v>
+        <v>2289.927546286222</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>22771.74960606207</v>
+        <v>2303.1960018969</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>22904.76187581657</v>
+        <v>2316.649220608748</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>23039.6258272804</v>
+        <v>2330.289723388949</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>23176.36672482527</v>
+        <v>2344.120065544007</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>23315.01017750228</v>
+        <v>2358.142837242227</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>23455.58214432099</v>
+        <v>2372.36066404766</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>23598.10893964573</v>
+        <v>2386.776207465883</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>23742.61723871281</v>
+        <v>2401.392165502046</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>23889.13408327294</v>
+        <v>2416.211273231547</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>24037.68688736315</v>
+        <v>2431.236303383823</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>24188.3034432122</v>
+        <v>2446.470066939639</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>24341.01192728451</v>
+        <v>2461.915413742392</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>24495.84090646699</v>
+        <v>2477.575233123856</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>24652.81934440386</v>
+        <v>2493.452454544909</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>24811.97660798435</v>
+        <v>2509.550048251712</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>24973.34247398876</v>
+        <v>2525.871025947912</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>25136.94713589824</v>
+        <v>2542.418441483401</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>25302.82121087375</v>
+        <v>2559.195391560185</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>25470.99574691038</v>
+        <v>2576.205016455995</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>25641.50223017296</v>
+        <v>2593.450500766227</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>25814.37259251917</v>
+        <v>2610.93507416485</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>25989.63921921668</v>
+        <v>2628.662012184941</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>26167.33495686124</v>
+        <v>2646.634637019535</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>26347.49312150242</v>
+        <v>2664.856318343494</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>26530.1475069844</v>
+        <v>2683.330474157109</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>26715.33239350923</v>
+        <v>2702.060571652216</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>26903.08255643028</v>
+        <v>2721.050128101587</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>27093.4332752839</v>
+        <v>2740.302711772415</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>27286.4203430674</v>
+        <v>2759.821942864718</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>27482.08007577217</v>
+        <v>2779.611494475538</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>27680.44932218044</v>
+        <v>2799.675093589819</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>27881.56547393509</v>
+        <v>2820.016522098892</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>28085.46647589162</v>
+        <v>2840.639617847495</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>28292.1908367622</v>
+        <v>2861.548275710353</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>28501.77764006186</v>
+        <v>2882.746448699293</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>28714.26655536699</v>
+        <v>2904.238149101966</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>28929.69784989681</v>
+        <v>2926.027449653227</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>29148.11240042912</v>
+        <v>2948.118484740326</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>29369.55170556129</v>
+        <v>2970.515451643012</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>29594.05789832832</v>
+        <v>2993.222611809768</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>29821.67375919018</v>
+        <v>3016.244292171378</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>30052.44272940045</v>
+        <v>3039.584886493065</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>30286.40892476933</v>
+        <v>3063.24885676653</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>30523.61714983405</v>
+        <v>3087.240734643173</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>30764.11291244994</v>
+        <v>3111.565122909879</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>31007.94243881653</v>
+        <v>3136.226697008799</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>31255.15268895235</v>
+        <v>3161.230206602509</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>31505.7913726334</v>
+        <v>3186.580477186076</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>31759.90696581031</v>
+        <v>3212.282411747525</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>32017.54872751936</v>
+        <v>3238.340992478274</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>32278.76671730347</v>
+        <v>3264.761282535132</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>32543.61181315904</v>
+        <v>3291.548427855498</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>32812.13573002542</v>
+        <v>3318.707659027426</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>33084.3910388339</v>
+        <v>3346.244293216307</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>33360.4311861337</v>
+        <v>3374.163736149874</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>33640.31051431247</v>
+        <v>3402.471484163374</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>33924.0842824296</v>
+        <v>3431.173126306699</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>34211.80868768106</v>
+        <v>3460.274346515397</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>34503.54088751416</v>
+        <v>3489.780925847416</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>34799.33902241191</v>
+        <v>3519.698744787587</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>35099.26223936657</v>
+        <v>3550.033785621786</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>35403.3707160621</v>
+        <v>3580.792134882821</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>35711.72568578608</v>
+        <v>3611.979985870092</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>36024.38946309167</v>
+        <v>3643.603641245105</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>36341.4254702305</v>
+        <v>3675.669515704973</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>36662.89826437789</v>
+        <v>3708.184138736037</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>36988.87356567156</v>
+        <v>3741.154157449788</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>37319.41828608618</v>
+        <v>3774.586339503311</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>37654.60055916524</v>
+        <v>3808.487576106443</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>37994.48977063265</v>
+        <v>3842.864885117922</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>38339.15658990658</v>
+        <v>3877.725414232774</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>38688.67300253778</v>
+        <v>3913.076444263213</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>39043.11234359522</v>
+        <v>3948.925392515355</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>39402.5493320219</v>
+        <v>3985.27981626406</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>39767.06010598301</v>
+        <v>4022.147416328135</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>40136.72225922985</v>
+        <v>4059.536040748284</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>40511.61487850163</v>
+        <v>4097.45368857002</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>40891.81858198813</v>
+        <v>4135.90851373389</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>41277.41555887499</v>
+        <v>4174.90882907518</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>41668.48960999447</v>
+        <v>4214.463110435458</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>42065.126189603</v>
+        <v>4254.58000088806</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>42467.41244830717</v>
+        <v>4295.268315079729</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>42875.43727715901</v>
+        <v>4336.537043690556</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>43289.29135294159</v>
+        <v>4378.395358014256</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>43709.06718466385</v>
+        <v>4420.85261466081</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>44134.8591612847</v>
+        <v>4463.91836038339</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>44566.76360068451</v>
+        <v>4507.602337031472</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>45004.87879990109</v>
+        <v>4551.914486631837</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>45449.30508664701</v>
+        <v>4596.864956599177</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>45900.14487212356</v>
+        <v>4642.464105077835</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>46357.50270514491</v>
+        <v>4688.72250641607</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>46821.48532758564</v>
+        <v>4735.650956774169</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>47292.20173116273</v>
+        <v>4783.260479867528</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>47769.76321556068</v>
+        <v>4831.562332845594</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>48254.28344790858</v>
+        <v>4880.568012307516</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>48745.8785236136</v>
+        <v>4930.289260455027</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>49244.6670285548</v>
+        <v>4980.738071382884</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>49750.77010263856</v>
+        <v>5031.926697507031</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>50264.31150471333</v>
+        <v>5083.867656130267</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>50785.41767884044</v>
+        <v>5136.573736145034</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>51314.21782191301</v>
+        <v>5190.058004872591</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>51850.84395261294</v>
+        <v>5244.3338150375</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>52395.43098169201</v>
+        <v>5299.414811876055</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>52948.11678356004</v>
+        <v>5355.314940376886</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>53509.04226915803</v>
+        <v>5412.048452651561</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>54078.35146009167</v>
+        <v>5469.629915432639</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>54656.19156399485</v>
+        <v>5528.074217696143</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>55242.71305108843</v>
+        <v>5587.396578404911</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>55838.06973189498</v>
+        <v>5647.612554368885</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>56442.41883606459</v>
+        <v>5708.738048217756</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>57055.92109226088</v>
+        <v>5770.789316480863</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>57678.74080905112</v>
+        <v>5833.782977768617</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>58311.04595673778</v>
+        <v>5897.736021049186</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>58953.00825006169</v>
+        <v>5962.665814013298</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>59604.80323170149</v>
+        <v>6028.590111519607</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>60266.61035648489</v>
+        <v>6095.527064112053</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>60938.61307622072</v>
+        <v>6163.495226599989</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>61620.99892505349</v>
+        <v>6232.513566691179</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>62313.95960523062</v>
+        <v>6302.601473666533</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>63017.69107316816</v>
+        <v>6373.778767085012</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>63732.39362568784</v>
+        <v>6446.065705505879</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>64458.27198629003</v>
+        <v>6519.482995214588</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>65195.53539131816</v>
+        <v>6594.051798937674</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>65944.39767585776</v>
+        <v>6669.793744530814</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>66705.07735920436</v>
+        <v>6746.730933623288</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>67477.7977297217</v>
+        <v>6824.885950200763</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>68262.78692890139</v>
+        <v>6904.281869107301</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>69060.27803442204</v>
+        <v>6984.942264446205</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>69870.50914199409</v>
+        <v>7066.891217858008</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>70693.72344576388</v>
+        <v>7150.153326652766</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>71530.16931703682</v>
+        <v>7234.753711772326</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>72380.1003810664</v>
+        <v>7320.71802555697</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>73243.77559164143</v>
+        <v>7408.072459289386</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>74121.45930319089</v>
+        <v>7496.84375048752</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>75013.42134010946</v>
+        <v>7587.05918991637</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>75919.93706299379</v>
+        <v>7678.746628287292</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>76841.28743146342</v>
+        <v>7771.934482611871</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>77777.7590632254</v>
+        <v>7866.651742175884</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>78729.64428902682</v>
+        <v>7962.927974097338</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>79697.24120312238</v>
+        <v>8060.793328430912</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>80680.85370887064</v>
+        <v>8160.278542779663</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>81680.79155905487</v>
+        <v>8261.414946373201</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>82697.37039051027</v>
+        <v>8364.234463569977</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>83730.91175262321</v>
+        <v>8468.769616739755</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>84781.74312925192</v>
+        <v>8575.053528480765</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>85850.19795360445</v>
+        <v>8683.119923124465</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>86936.61561559387</v>
+        <v>8793.003127479482</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>88041.341461175</v>
+        <v>8904.738070764528</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>89164.72678315555</v>
+        <v>9018.360283679011</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>90307.12880295829</v>
+        <v>9133.90589655841</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>91468.91064279959</v>
+        <v>9251.411636560337</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>92650.44128773618</v>
+        <v>9370.914823825848</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>93852.0955370226</v>
+        <v>9492.45336655961</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>95074.2539442094</v>
+        <v>9616.065754971258</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>96317.30274540326</v>
+        <v>9741.791054019437</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>97581.63377510426</v>
+        <v>11269.0873416727</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>98867.64436902603</v>
+        <v>12820.77188274453</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>100175.7372533004</v>
+        <v>14397.26821288152</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>101506.3204194661</v>
+        <v>15999.00542825815</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>102859.806984637</v>
+        <v>17626.4180615545</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>104236.6150362462</v>
+        <v>19279.945941504</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>105637.1674607668</v>
+        <v>20960.03403534636</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>107061.8917558114</v>
+        <v>22667.13227352259</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>108511.2198250211</v>
+        <v>24401.69535595403</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>109985.5877551638</v>
+        <v>26164.18253925864</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>111485.4355748762</v>
+        <v>27955.05740426643</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>113011.2069944938</v>
+        <v>29774.78760320969</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>114563.3491264372</v>
+        <v>31623.8445859827</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>116142.3121856404</v>
+        <v>33502.70330488519</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>117748.5491695335</v>
+        <v>35411.84189728634</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>119382.5155171214</v>
+        <v>37351.74134567697</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>121044.6687467276</v>
+        <v>39322.88511460481</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>122735.4680720138</v>
+        <v>41325.75876402525</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>124455.3739959223</v>
+        <v>43360.84953864088</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>126204.8478822315</v>
+        <v>45428.64593284155</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>127984.3515044651</v>
+        <v>47529.63723091049</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>129794.3465719431</v>
+        <v>49664.31302220801</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>131635.2942328258</v>
+        <v>51833.16269110757</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>133507.6545540547</v>
+        <v>54036.67488151375</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>135411.8859781649</v>
+        <v>56275.33693586149</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>137348.4447570094</v>
+        <v>58549.6343085655</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>139317.7843625115</v>
+        <v>60860.04995396212</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>141320.3548746358</v>
+        <v>63207.06368886708</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>143356.6023468542</v>
+        <v>65591.15152995566</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>145426.968149466</v>
+        <v>68012.78500626089</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>147531.8882912221</v>
+        <v>70472.4304471759</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>149671.7927197958</v>
+        <v>72970.54824644605</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>151847.1046017414</v>
+        <v>75507.59210273482</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>154058.2395826802</v>
+        <v>78084.00823745217</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>156305.6050285567</v>
+        <v>80700.23459064237</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>158589.5992489147</v>
+        <v>83356.69999583773</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>160910.6107032477</v>
+        <v>86053.82333489732</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>163269.0171915938</v>
+        <v>88792.01267396877</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>165665.185030648</v>
+        <v>91571.66438182362</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>168099.4682167839</v>
+        <v>94393.16223193856</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>170572.2075774849</v>
+        <v>97256.87648981383</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>173083.7299127986</v>
+        <v>100163.1629871388</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>175634.3471285391</v>
+        <v>103112.3621845363</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>178224.3553630695</v>
+        <v>106104.7982247302</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>180854.0341096095</v>
+        <v>109140.777978107</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>183523.6453361095</v>
+        <v>112220.5900827439</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>186233.4326048438</v>
+        <v>115344.5039811009</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>188983.6201939613</v>
+        <v>118512.7689556667</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>191774.4122233341</v>
+        <v>121725.6131659653</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>194605.991787122</v>
+        <v>124983.2426894172</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>197478.5200955553</v>
+        <v>128285.8405686437</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>200392.1356285074</v>
+        <v>131633.5658678871</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>203346.9533034932</v>
+        <v>135026.5527412945</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>206343.0636607841</v>
+        <v>138464.9095158812</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>209380.5320683761</v>
+        <v>141948.7177920468</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>212306.0675869567</v>
+        <v>145324.7012019424</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>215270.9788494736</v>
+        <v>148744.1811804561</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>218275.2463890847</v>
+        <v>152207.1491827727</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>221318.8236739972</v>
+        <v>155713.5676072092</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>224401.636476722</v>
+        <v>159263.369051055</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>227523.5822782556</v>
+        <v>162856.4556001505</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>230684.5297098125</v>
+        <v>166492.6981550569</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>233884.3180346694</v>
+        <v>170171.9357966254</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>237122.7566726258</v>
+        <v>173893.9751937287</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>240399.624769508</v>
+        <v>177658.5900558545</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>243714.6708140495</v>
+        <v>181465.5206331761</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>247067.6123043823</v>
+        <v>185314.473266634</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>250458.1354662497</v>
+        <v>189205.1199904435</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>253885.8950249262</v>
+        <v>193137.0981893371</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>257350.5140326858</v>
+        <v>197110.0103127095</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>260845.6685266604</v>
+        <v>201117.508420847</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>264376.7690653639</v>
+        <v>205164.9756118671</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>267943.3436101832</v>
+        <v>209251.9087960239</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>271544.8883820063</v>
+        <v>213377.7694479153</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>275180.8679876975</v>
+        <v>217541.9836316701</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>278850.7156094175</v>
+        <v>221743.9420924904</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>282553.8332573247</v>
+        <v>225983.0004154637</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>286289.592085972</v>
+        <v>230258.4792523416</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>290057.3327744915</v>
+        <v>234569.6646167621</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>293856.3659704289</v>
+        <v>238915.8082481599</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>298283.4420840321</v>
+        <v>243893.5973315552</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>302745.7140782654</v>
+        <v>248910.1172188716</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>307242.3413405333</v>
+        <v>253964.4552381419</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>311772.45326671</v>
+        <v>259055.6642215748</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>316335.1501571129</v>
+        <v>264182.7633524797</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>320929.5041793583</v>
+        <v>269344.7390863461</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>325554.5603960973</v>
+        <v>274540.5461444222</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>330209.3378553724</v>
+        <v>279769.1085778658</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>334892.8307410927</v>
+        <v>285029.3209002855</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>339604.0095808847</v>
+        <v>290320.0492862376</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>345067.3214657908</v>
+        <v>296365.6317904362</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>350561.3891552473</v>
+        <v>302444.5774613823</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>356085.0301195187</v>
+        <v>308555.5854018377</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>361637.0429509954</v>
+        <v>314697.3312077824</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>367216.2090621747</v>
+        <v>320868.4687038809</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>372821.2944263889</v>
+        <v>327067.6317317041</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>378451.0513565575</v>
+        <v>333293.4359861436</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>384104.2203170544</v>
+        <v>339544.4808952351</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>389779.5317636259</v>
+        <v>345819.3515384331</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>395475.7080061258</v>
+        <v>352116.6205981732</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>400884.2593203443</v>
+        <v>358127.6445710421</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>406309.3937186967</v>
+        <v>364156.4736483329</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>411749.8534635314</v>
+        <v>370201.6883497217</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>417204.3793623258</v>
+        <v>376261.8639492829</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>422671.7125459157</v>
+        <v>382335.5723948981</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>428150.5962358721</v>
+        <v>388421.384227052</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>433639.7774954491</v>
+        <v>394517.8704912833</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>439138.008958465</v>
+        <v>400623.6046384587</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>444644.0505304714</v>
+        <v>406737.1644070022</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>450156.6710565262</v>
+        <v>412857.1336811316</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>456176.0530371674</v>
+        <v>419483.5074064078</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>462201.8092152662</v>
+        <v>426115.7083849424</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>468232.7152756916</v>
+        <v>432752.3201918332</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>474267.5651866017</v>
+        <v>439391.9427412502</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>480305.1727723356</v>
+        <v>446033.1940917144</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>486344.3732133445</v>
+        <v>452674.7121855491</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>492384.0244669778</v>
+        <v>459315.1565158325</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>498423.0086029926</v>
+        <v>465953.2097141996</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>504460.2330477288</v>
+        <v>472587.5790528915</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>510494.6317309682</v>
+        <v>479216.9978544998</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>516525.1661296303</v>
+        <v>485840.2268029615</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>522550.8262025589</v>
+        <v>492456.0551494446</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>528570.6312108506</v>
+        <v>499063.3018069362</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>534583.6304183317</v>
+        <v>505660.8163274819</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>540588.903667039</v>
+        <v>512247.4797562654</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>546585.5618228143</v>
+        <v>518822.2053569474</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>552572.7470864146</v>
+        <v>525383.9392029736</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>558549.6331659054</v>
+        <v>531931.6606299089</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>564515.4253064821</v>
+        <v>538464.3825442366</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>570469.3601743192</v>
+        <v>544981.1515845009</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>576410.7055915522</v>
+        <v>551481.0481311845</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>582338.7601200455</v>
+        <v>557963.1861622578</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>588252.8524922363</v>
+        <v>564426.7129519765</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>594152.3408880044</v>
+        <v>570870.808611178</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>600036.6120572891</v>
+        <v>577294.6854680941</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>605905.0802889547</v>
+        <v>583697.587289509</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>611757.1862273099</v>
+        <v>590078.7883429889</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>617592.3955385836</v>
+        <v>596437.5923018405</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>623410.1974306828</v>
+        <v>602773.3309954935</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>629210.1030305849</v>
+        <v>609085.363009043</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>634991.6436248131</v>
+        <v>615373.0721368243</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>640754.3687695884</v>
+        <v>621635.8656960479</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>646497.8442784162</v>
+        <v>627873.1727077279</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>652221.6500960659</v>
+        <v>634084.4419533613</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>657925.3780691078</v>
+        <v>640269.1399170578</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>663608.6296243892</v>
+        <v>646426.7486240705</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>669271.0133680464</v>
+        <v>652556.7633879283</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>674912.142618799</v>
+        <v>658658.6904795596</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>680531.632890447</v>
+        <v>664732.0447330097</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>686129.0993395575</v>
+        <v>670776.347103458</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_TH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_TH.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>1471.732009315044</v>
+        <v>490.5773364383481</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>1473.452254203823</v>
+        <v>491.1507514012744</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>1475.197217667914</v>
+        <v>491.7324058893045</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>1476.967252497738</v>
+        <v>492.3224174992462</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>1478.76271645233</v>
+        <v>492.9209054841101</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>1480.583972327527</v>
+        <v>493.5279907758422</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>1482.431388025054</v>
+        <v>494.1437960083513</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>1484.30533662251</v>
+        <v>494.7684455408366</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>1486.206196444266</v>
+        <v>495.4020654814221</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>1488.134351133286</v>
+        <v>496.0447837110953</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>1490.090189723875</v>
+        <v>496.6967299079582</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>1492.074106715384</v>
+        <v>497.3580355717947</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>1494.086502146863</v>
+        <v>498.0288340489545</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>1496.127781672684</v>
+        <v>498.7092605575613</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>1498.198356639135</v>
+        <v>499.3994522130452</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>1500.298644162021</v>
+        <v>500.099548054007</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>1502.429067205247</v>
+        <v>500.8096890684157</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>1504.590054660429</v>
+        <v>501.5300182201429</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>1506.782041427524</v>
+        <v>502.2606804758412</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>1509.005468496496</v>
+        <v>503.0018228321653</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>1511.260783030037</v>
+        <v>503.7535943433459</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>1513.548438447346</v>
+        <v>504.5161461491154</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>1515.868894508977</v>
+        <v>505.2896315029923</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>1518.222617402786</v>
+        <v>506.0742058009287</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>1520.610079830966</v>
+        <v>506.8700266103219</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>1523.031761098197</v>
+        <v>507.6772536993991</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>1525.488147200926</v>
+        <v>508.4960490669754</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>1527.979730917773</v>
+        <v>509.326576972591</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>1530.507011901102</v>
+        <v>510.1690039670338</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>1533.070496769745</v>
+        <v>511.0234989232481</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>1535.67069920291</v>
+        <v>511.8902330676368</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>1538.308140035281</v>
+        <v>512.7693800117603</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>1540.983347353313</v>
+        <v>513.6611157844378</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>1543.696856592764</v>
+        <v>514.5656188642546</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>1546.449210637439</v>
+        <v>515.4830702124798</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>1549.240959919204</v>
+        <v>516.4136533064013</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>1552.072662519239</v>
+        <v>517.3575541730797</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>1554.944884270586</v>
+        <v>518.3149614235285</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>1557.858198861974</v>
+        <v>519.286066287325</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>1560.813187942968</v>
+        <v>520.2710626476562</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>1563.810441230413</v>
+        <v>521.2701470768043</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>1566.850556616238</v>
+        <v>522.2835188720794</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>1569.934140276604</v>
+        <v>523.3113800922013</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>1573.061806782414</v>
+        <v>524.3539355941381</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>1576.234179211218</v>
+        <v>525.4113930704061</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>1579.451889260503</v>
+        <v>526.4839630868347</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>1582.715577362416</v>
+        <v>527.5718591208055</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>1586.025892799905</v>
+        <v>528.6752975999684</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>1589.383493824315</v>
+        <v>529.7944979414383</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>1592.789047774454</v>
+        <v>530.9296825914845</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>1596.243231197137</v>
+        <v>532.0810770657122</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>1599.746729969235</v>
+        <v>533.248909989745</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>1603.300239421237</v>
+        <v>534.4334131404122</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>1606.904464462356</v>
+        <v>535.6348214874522</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>1610.560119707191</v>
+        <v>536.85337323573</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>1614.267929603944</v>
+        <v>538.0893098679812</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>1618.028628564263</v>
+        <v>539.3428761880875</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>1621.842961094666</v>
+        <v>540.614320364889</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>1625.711681929614</v>
+        <v>541.9038939765381</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>1629.635556166225</v>
+        <v>543.2118520554081</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>1633.615359400667</v>
+        <v>544.5384531335558</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>1637.651877866239</v>
+        <v>545.8839592887464</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>1641.745908573167</v>
+        <v>547.2486361910555</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>1645.898259450127</v>
+        <v>548.6327531500422</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>1650.109749487535</v>
+        <v>550.0365831625119</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>1654.381208882607</v>
+        <v>551.460402960869</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>1658.713479186216</v>
+        <v>552.9044930620722</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>1663.107413451583</v>
+        <v>554.3691378171942</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>1667.563876384804</v>
+        <v>555.8546254616011</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>1672.083744497254</v>
+        <v>557.3612481657512</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>1676.667906259883</v>
+        <v>558.8893020866278</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>1681.317262259434</v>
+        <v>560.4390874198114</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>1686.0327253566</v>
+        <v>562.0109084521998</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>1690.815220846157</v>
+        <v>563.6050736153855</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>1695.6656866191</v>
+        <v>565.2218955396997</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>1700.585073326789</v>
+        <v>566.8616911089294</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>1705.574344547163</v>
+        <v>568.5247815157213</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>1710.634476953029</v>
+        <v>570.2114923176764</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>1715.766460482456</v>
+        <v>571.9221534941518</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>1720.971298511318</v>
+        <v>573.6570995037727</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>1726.250008028008</v>
+        <v>575.4166693426696</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>1731.603619810347</v>
+        <v>577.2012066034489</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>1737.03317860473</v>
+        <v>579.0110595349101</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>1742.539743307549</v>
+        <v>580.8465811025162</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>1748.124387148905</v>
+        <v>582.7081290496353</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>1753.788197878671</v>
+        <v>584.596065959557</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>1759.532277954906</v>
+        <v>586.510759318302</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>1765.35774473471</v>
+        <v>588.4525815782365</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>1771.265730667498</v>
+        <v>590.4219102224994</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>1777.257383490778</v>
+        <v>592.4191278302595</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>1783.333866428454</v>
+        <v>594.4446221428179</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>1789.496358391691</v>
+        <v>596.4987861305636</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>1795.746054182397</v>
+        <v>598.5820180607991</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>1802.084164699367</v>
+        <v>600.6947215664558</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>1808.511917147117</v>
+        <v>602.8373057157057</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>1815.03055524747</v>
+        <v>605.0101850824901</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>1821.641339453944</v>
+        <v>607.2137798179813</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>1828.345547168984</v>
+        <v>609.4485157229946</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>1835.144472964088</v>
+        <v>611.7148243213627</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>1842.039428802894</v>
+        <v>614.0131429342978</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>1849.03174426726</v>
+        <v>616.3439147557533</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>1856.122766786433</v>
+        <v>618.7075889288108</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>1863.313861869307</v>
+        <v>621.1046206231022</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>1870.606413339895</v>
+        <v>623.5354711132981</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>1878.001823576032</v>
+        <v>626.0006078586772</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>1885.501513751401</v>
+        <v>628.5005045838002</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>1893.106924080926</v>
+        <v>631.0356413603084</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>1900.819514069627</v>
+        <v>633.6065046898757</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>1908.640762764997</v>
+        <v>636.2135875883321</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>1916.572169012966</v>
+        <v>638.8573896709888</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>1924.615251717563</v>
+        <v>641.5384172391878</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>1932.771550104309</v>
+        <v>644.257183368103</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>1941.042623987471</v>
+        <v>647.0142079958237</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>1949.430054041237</v>
+        <v>649.8100180137458</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>1957.935442074907</v>
+        <v>652.6451473583024</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>1966.560411312197</v>
+        <v>655.5201371040658</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>1975.306606674758</v>
+        <v>658.4355355582528</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>1984.175695069993</v>
+        <v>661.3918983566641</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>1993.169365683297</v>
+        <v>664.3897885610993</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>2002.289330274822</v>
+        <v>667.4297767582741</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>2011.537323480865</v>
+        <v>670.5124411602884</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>2020.915103120023</v>
+        <v>673.6383677066744</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>2030.424450504218</v>
+        <v>676.8081501680724</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>2040.067170754713</v>
+        <v>680.0223902515709</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>2049.845093123278</v>
+        <v>683.2816977077596</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>2059.76007131861</v>
+        <v>686.5866904395366</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>2069.813983838166</v>
+        <v>689.9379946127222</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>2080.00873430556</v>
+        <v>693.33624476852</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>2090.346251813663</v>
+        <v>696.7820839378875</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>2100.828491273572</v>
+        <v>700.2761637578573</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>2111.457433769618</v>
+        <v>703.8191445898726</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>2122.235086920581</v>
+        <v>707.4116956401936</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>2133.163485247275</v>
+        <v>711.0544950824249</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>2144.244690546727</v>
+        <v>714.7482301822422</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>2155.480792273093</v>
+        <v>718.4935974243645</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>2166.873907925552</v>
+        <v>722.2913026418506</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>2178.426183443368</v>
+        <v>726.1420611477895</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>2190.139793608333</v>
+        <v>730.0465978694442</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>2202.016942454824</v>
+        <v>734.0056474849414</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>2214.059863687713</v>
+        <v>738.0199545625712</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>2226.270821108345</v>
+        <v>742.0902737027818</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>2238.652109048878</v>
+        <v>746.2173696829594</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>2251.206052815204</v>
+        <v>750.4020176050678</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>2263.935009138761</v>
+        <v>754.6450030462537</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>2276.841366637484</v>
+        <v>758.9471222124945</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>2289.927546286222</v>
+        <v>763.3091820954073</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>2303.1960018969</v>
+        <v>767.7320006323002</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>2316.649220608748</v>
+        <v>772.2164068695829</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>2330.289723388949</v>
+        <v>776.7632411296499</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>2344.120065544007</v>
+        <v>781.3733551813355</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>2358.142837242227</v>
+        <v>786.0476124140758</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>2372.36066404766</v>
+        <v>790.7868880158867</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>2386.776207465883</v>
+        <v>795.5920691552946</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>2401.392165502046</v>
+        <v>800.4640551673488</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>2416.211273231547</v>
+        <v>805.403757743849</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>2431.236303383823</v>
+        <v>810.4121011279408</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>2446.470066939639</v>
+        <v>815.4900223132131</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>2461.915413742392</v>
+        <v>820.6384712474639</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>2477.575233123856</v>
+        <v>825.8584110412855</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>2493.452454544909</v>
+        <v>831.1508181816363</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>2509.550048251712</v>
+        <v>836.5166827505705</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>2525.871025947912</v>
+        <v>841.957008649304</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>2542.418441483401</v>
+        <v>847.4728138278003</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>2559.195391560185</v>
+        <v>853.0651305200618</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>2576.205016455995</v>
+        <v>858.7350054853318</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>2593.450500766227</v>
+        <v>864.4835002554094</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>2610.93507416485</v>
+        <v>870.3116913882834</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>2628.662012184941</v>
+        <v>876.2206707283135</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>2646.634637019535</v>
+        <v>882.2115456731782</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>2664.856318343494</v>
+        <v>888.2854394478313</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>2683.330474157109</v>
+        <v>894.4434913857029</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>2702.060571652216</v>
+        <v>900.6868572174054</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>2721.050128101587</v>
+        <v>907.0167093671957</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>2740.302711772415</v>
+        <v>913.4342372574719</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>2759.821942864718</v>
+        <v>919.9406476215726</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>2779.611494475538</v>
+        <v>926.5371648251792</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>2799.675093589819</v>
+        <v>933.2250311966064</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>2820.016522098892</v>
+        <v>940.0055073662973</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>2840.639617847495</v>
+        <v>946.8798726158317</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>2861.548275710353</v>
+        <v>953.8494252367841</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>2882.746448699293</v>
+        <v>960.9154828997644</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>2904.238149101966</v>
+        <v>968.0793830339887</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>2926.027449653227</v>
+        <v>975.3424832177426</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>2948.118484740326</v>
+        <v>982.7061615801088</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>2970.515451643012</v>
+        <v>990.1718172143374</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>2993.222611809768</v>
+        <v>997.740870603256</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>3016.244292171378</v>
+        <v>1005.414764057126</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>3039.584886493065</v>
+        <v>1013.194962164355</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>3063.24885676653</v>
+        <v>1021.08295225551</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>3087.240734643173</v>
+        <v>1029.080244881058</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>3111.565122909879</v>
+        <v>1037.188374303293</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>3136.226697008799</v>
+        <v>1045.408899002933</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>3161.230206602509</v>
+        <v>1053.743402200836</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>3186.580477186076</v>
+        <v>1062.193492395359</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>3212.282411747525</v>
+        <v>1070.760803915842</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>3238.340992478274</v>
+        <v>1079.446997492758</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>3264.761282535132</v>
+        <v>1088.253760845044</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>3291.548427855498</v>
+        <v>1097.182809285166</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>3318.707659027426</v>
+        <v>1106.235886342476</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>3346.244293216307</v>
+        <v>1115.414764405436</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>3374.163736149874</v>
+        <v>1124.721245383291</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>3402.471484163374</v>
+        <v>1134.157161387791</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>3431.173126306699</v>
+        <v>1143.724375435566</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>3460.274346515397</v>
+        <v>1153.424782171799</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>3489.780925847416</v>
+        <v>1163.260308615806</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>3519.698744787587</v>
+        <v>1173.232914929196</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>3550.033785621786</v>
+        <v>1183.344595207262</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>3580.792134882821</v>
+        <v>1193.597378294274</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>3611.979985870092</v>
+        <v>1203.993328623364</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>3643.603641245105</v>
+        <v>1214.534547081702</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>3675.669515704973</v>
+        <v>1225.223171901658</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>3708.184138736037</v>
+        <v>1236.061379578679</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>3741.154157449788</v>
+        <v>1247.051385816596</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>3774.586339503311</v>
+        <v>1258.195446501103</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>3808.487576106443</v>
+        <v>1269.495858702148</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>3842.864885117922</v>
+        <v>1280.954961705974</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>3877.725414232774</v>
+        <v>1292.575138077591</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>3913.076444263213</v>
+        <v>1304.358814754404</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>3948.925392515355</v>
+        <v>1316.308464171785</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>3985.27981626406</v>
+        <v>1328.426605421354</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>4022.147416328135</v>
+        <v>1340.715805442712</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>4059.536040748284</v>
+        <v>1353.178680249428</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>4097.45368857002</v>
+        <v>1365.817896190007</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>4135.90851373389</v>
+        <v>1378.63617124463</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>4174.90882907518</v>
+        <v>1391.636276358393</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>4214.463110435458</v>
+        <v>1404.82103681182</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>4254.58000088806</v>
+        <v>1418.193333629353</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>4295.268315079729</v>
+        <v>1431.756105026577</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>4336.537043690556</v>
+        <v>1445.512347896852</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>4378.395358014256</v>
+        <v>1459.465119338086</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>4420.85261466081</v>
+        <v>1473.61753822027</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>4463.91836038339</v>
+        <v>1487.972786794463</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>4507.602337031472</v>
+        <v>1502.534112343824</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>4551.914486631837</v>
+        <v>1517.304828877279</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>4596.864956599177</v>
+        <v>1532.288318866393</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>4642.464105077835</v>
+        <v>1547.488035025945</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>4688.72250641607</v>
+        <v>1562.90750213869</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>4735.650956774169</v>
+        <v>1578.550318924723</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>4783.260479867528</v>
+        <v>1594.420159955843</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>4831.562332845594</v>
+        <v>1610.520777615198</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>4880.568012307516</v>
+        <v>1626.856004102505</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>4930.289260455027</v>
+        <v>1643.429753485009</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>4980.738071382884</v>
+        <v>1660.246023794295</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>5031.926697507031</v>
+        <v>1677.308899169011</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>5083.867656130267</v>
+        <v>1694.622552043423</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>5136.573736145034</v>
+        <v>1712.191245381678</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>5190.058004872591</v>
+        <v>1730.019334957531</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>5244.3338150375</v>
+        <v>1748.111271679167</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>5299.414811876055</v>
+        <v>1766.471603958685</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>5355.314940376886</v>
+        <v>1785.104980125629</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>5412.048452651561</v>
+        <v>1804.016150883854</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>5469.629915432639</v>
+        <v>1823.20997181088</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>5528.074217696143</v>
+        <v>1842.691405898714</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>5587.396578404911</v>
+        <v>1862.46552613497</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>5647.612554368885</v>
+        <v>1882.537518122962</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>5708.738048217756</v>
+        <v>1902.912682739252</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>5770.789316480863</v>
+        <v>1923.596438826954</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>5833.782977768617</v>
+        <v>1944.594325922872</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>5897.736021049186</v>
+        <v>1965.912007016395</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>5962.665814013298</v>
+        <v>1987.555271337766</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>6028.590111519607</v>
+        <v>2009.530037173203</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>6095.527064112053</v>
+        <v>2031.842354704018</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>6163.495226599989</v>
+        <v>2054.498408866663</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>6232.513566691179</v>
+        <v>2077.504522230393</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>6302.601473666533</v>
+        <v>2100.867157888845</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>6373.778767085012</v>
+        <v>2124.59292236167</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>6446.065705505879</v>
+        <v>2148.68856850196</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>6519.482995214588</v>
+        <v>2173.160998404863</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>6594.051798937674</v>
+        <v>2198.017266312558</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>6669.793744530814</v>
+        <v>2223.264581510271</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>6746.730933623288</v>
+        <v>2248.910311207763</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>6824.885950200763</v>
+        <v>2274.961983400254</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>6904.281869107301</v>
+        <v>2301.427289702434</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>6984.942264446205</v>
+        <v>2328.314088148735</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>7066.891217858008</v>
+        <v>2355.630405952669</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>7150.153326652766</v>
+        <v>2383.384442217589</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>7234.753711772326</v>
+        <v>2411.584570590776</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>7320.71802555697</v>
+        <v>2440.239341852323</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>7408.072459289386</v>
+        <v>2469.357486429795</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>7496.84375048752</v>
+        <v>2498.947916829174</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>7587.05918991637</v>
+        <v>2529.019729972124</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>7678.746628287292</v>
+        <v>2559.582209429098</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>7771.934482611871</v>
+        <v>2590.64482753729</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>7866.651742175884</v>
+        <v>2622.217247391961</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>7962.927974097338</v>
+        <v>2654.309324699113</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>8060.793328430912</v>
+        <v>2686.931109476971</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>8160.278542779663</v>
+        <v>2720.092847593221</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>8261.414946373201</v>
+        <v>2753.8049821244</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>8364.234463569977</v>
+        <v>2788.078154523326</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>8468.769616739755</v>
+        <v>2822.923205579918</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>8575.053528480765</v>
+        <v>2858.351176160255</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>8683.119923124465</v>
+        <v>2894.373307708155</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>8793.003127479482</v>
+        <v>2931.001042493161</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>8904.738070764528</v>
+        <v>2968.246023588176</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>9018.360283679011</v>
+        <v>3006.120094559671</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>9133.90589655841</v>
+        <v>3044.635298852803</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>9251.411636560337</v>
+        <v>3083.803878853445</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>9370.914823825848</v>
+        <v>3123.638274608616</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>9492.45336655961</v>
+        <v>3164.151122186537</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>9616.065754971258</v>
+        <v>3205.355251657085</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>9741.791054019437</v>
+        <v>3247.263684673146</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>11269.0873416727</v>
+        <v>3756.362447224235</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>12820.77188274453</v>
+        <v>4273.590627581511</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>14397.26821288152</v>
+        <v>4799.089404293843</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>15999.00542825815</v>
+        <v>5333.001809419385</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>17626.4180615545</v>
+        <v>5875.472687184833</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>19279.945941504</v>
+        <v>6426.648647168</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>20960.03403534636</v>
+        <v>6986.678011782123</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>22667.13227352259</v>
+        <v>7555.710757840864</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>24401.69535595403</v>
+        <v>8133.898451984679</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>26164.18253925864</v>
+        <v>8721.394179752882</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>27955.05740426643</v>
+        <v>9318.352468088815</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>29774.78760320969</v>
+        <v>9924.929201069901</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>31623.8445859827</v>
+        <v>10541.2815286609</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>33502.70330488519</v>
+        <v>11167.56776829506</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>35411.84189728634</v>
+        <v>11803.94729909545</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>37351.74134567697</v>
+        <v>12450.580448559</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>39322.88511460481</v>
+        <v>13107.62837153494</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>41325.75876402525</v>
+        <v>13775.25292134176</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>43360.84953864088</v>
+        <v>14453.61651288029</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>45428.64593284155</v>
+        <v>15142.88197761386</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>47529.63723091049</v>
+        <v>15843.2124103035</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>49664.31302220801</v>
+        <v>16554.77100740268</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>51833.16269110757</v>
+        <v>17277.72089703586</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>54036.67488151375</v>
+        <v>18012.22496050459</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>56275.33693586149</v>
+        <v>18758.44564528717</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>58549.6343085655</v>
+        <v>19516.54476952184</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>60860.04995396212</v>
+        <v>20286.68331798738</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>63207.06368886708</v>
+        <v>21069.02122962237</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>65591.15152995566</v>
+        <v>21863.71717665189</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>68012.78500626089</v>
+        <v>22670.92833542031</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>70472.4304471759</v>
+        <v>23490.81014905864</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>72970.54824644605</v>
+        <v>24323.51608214869</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>75507.59210273482</v>
+        <v>25169.19736757828</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>78084.00823745217</v>
+        <v>26028.0027458174</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>80700.23459064237</v>
+        <v>26900.0781968808</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>83356.69999583773</v>
+        <v>27785.56666527925</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>86053.82333489732</v>
+        <v>28684.60777829912</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>88792.01267396877</v>
+        <v>29597.33755798959</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>91571.66438182362</v>
+        <v>30523.88812727455</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>94393.16223193856</v>
+        <v>31464.3874106462</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>97256.87648981383</v>
+        <v>32418.95882993796</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>100163.1629871388</v>
+        <v>33387.72099571296</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>103112.3621845363</v>
+        <v>34370.78739484545</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>106104.7982247302</v>
+        <v>35368.26607491008</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>109140.777978107</v>
+        <v>36380.25932603567</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>112220.5900827439</v>
+        <v>37406.86336091466</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>115344.5039811009</v>
+        <v>38448.16799370033</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>118512.7689556667</v>
+        <v>39504.25631855556</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>121725.6131659653</v>
+        <v>40575.20438865512</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>124983.2426894172</v>
+        <v>41661.08089647241</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>128285.8405686437</v>
+        <v>42761.94685621458</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>131633.5658678871</v>
+        <v>43877.85528929571</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>135026.5527412945</v>
+        <v>45008.85091376485</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>138464.9095158812</v>
+        <v>46154.9698386271</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>141948.7177920468</v>
+        <v>47316.2392640156</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>145324.7012019424</v>
+        <v>48441.56706731414</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>148744.1811804561</v>
+        <v>49581.39372681872</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>152207.1491827727</v>
+        <v>50735.7163942576</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>155713.5676072092</v>
+        <v>51904.52253573643</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>159263.369051055</v>
+        <v>53087.78968368502</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>162856.4556001505</v>
+        <v>54285.48520005021</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>166492.6981550569</v>
+        <v>55497.56605168567</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>170171.9357966254</v>
+        <v>56723.97859887518</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>173893.9751937287</v>
+        <v>57964.65839790961</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>177658.5900558545</v>
+        <v>59219.5300186182</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>181465.5206331761</v>
+        <v>60488.50687772543</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>185314.473266634</v>
+        <v>61771.49108887803</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>189205.1199904435</v>
+        <v>63068.37333014786</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>193137.0981893371</v>
+        <v>64379.03272977911</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>197110.0103127095</v>
+        <v>65703.33677090323</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>201117.508420847</v>
+        <v>67039.16947361572</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>205164.9756118671</v>
+        <v>68388.32520395577</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>209251.9087960239</v>
+        <v>69750.63626534137</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>213377.7694479153</v>
+        <v>71125.92314930515</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>217541.9836316701</v>
+        <v>72513.99454389009</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>221743.9420924904</v>
+        <v>73914.64736416354</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>225983.0004154637</v>
+        <v>75327.66680515463</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>230258.4792523416</v>
+        <v>76752.82641744729</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>234569.6646167621</v>
+        <v>78189.88820558744</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>238915.8082481599</v>
+        <v>79638.60274938669</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>243893.5973315552</v>
+        <v>81297.86577718516</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>248910.1172188716</v>
+        <v>82970.03907295727</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>253964.4552381419</v>
+        <v>84654.81841271406</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>259055.6642215748</v>
+        <v>86351.88807385838</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>264182.7633524797</v>
+        <v>88060.9211174933</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>269344.7390863461</v>
+        <v>89781.57969544879</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>274540.5461444222</v>
+        <v>91513.51538147416</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>279769.1085778658</v>
+        <v>93256.36952595535</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>285029.3209002855</v>
+        <v>95009.77363342862</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>290320.0492862376</v>
+        <v>96773.34976207931</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>296365.6317904362</v>
+        <v>98788.5439301455</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>302444.5774613823</v>
+        <v>100814.8591537942</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>308555.5854018377</v>
+        <v>102851.8618006126</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>314697.3312077824</v>
+        <v>104899.1104025942</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>320868.4687038809</v>
+        <v>106956.1562346271</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>327067.6317317041</v>
+        <v>109022.5439105681</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>333293.4359861436</v>
+        <v>111097.8119953813</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>339544.4808952351</v>
+        <v>113181.4936317452</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>345819.3515384331</v>
+        <v>115273.1171794778</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>352116.6205981732</v>
+        <v>117372.2068660578</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>358127.6445710421</v>
+        <v>119375.8815236808</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>364156.4736483329</v>
+        <v>121385.491216111</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>370201.6883497217</v>
+        <v>123400.5627832406</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>376261.8639492829</v>
+        <v>125420.6213164277</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>382335.5723948981</v>
+        <v>127445.1907982994</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>388421.384227052</v>
+        <v>129473.7947423507</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>394517.8704912833</v>
+        <v>131505.9568304278</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>400623.6046384587</v>
+        <v>133541.201546153</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>406737.1644070022</v>
+        <v>135579.0548023341</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>412857.1336811316</v>
+        <v>137619.0445603772</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>419483.5074064078</v>
+        <v>139827.835802136</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>426115.7083849424</v>
+        <v>142038.5694616475</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>432752.3201918332</v>
+        <v>144250.7733972777</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>439391.9427412502</v>
+        <v>146463.9809137501</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>446033.1940917144</v>
+        <v>148677.7313639048</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>452674.7121855491</v>
+        <v>150891.5707285164</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>459315.1565158325</v>
+        <v>153105.0521719441</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>465953.2097141996</v>
+        <v>155317.7365713999</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>472587.5790528915</v>
+        <v>157529.1930176305</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>479216.9978544998</v>
+        <v>159738.9992848333</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>485840.2268029615</v>
+        <v>161946.7422676538</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>492456.0551494446</v>
+        <v>164152.0183831482</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>499063.3018069362</v>
+        <v>166354.4339356454</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>505660.8163274819</v>
+        <v>168553.605442494</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>512247.4797562654</v>
+        <v>170749.1599187551</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>518822.2053569474</v>
+        <v>172940.7351189824</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>525383.9392029736</v>
+        <v>175127.9797343245</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>531931.6606299089</v>
+        <v>177310.5535433029</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>538464.3825442366</v>
+        <v>179488.1275147455</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>544981.1515845009</v>
+        <v>181660.3838615002</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>551481.0481311845</v>
+        <v>183827.0160437281</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>557963.1861622578</v>
+        <v>185987.7287207525</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>564426.7129519765</v>
+        <v>188142.2376506588</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>570870.808611178</v>
+        <v>190290.2695370592</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>577294.6854680941</v>
+        <v>192431.5618226979</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>583697.587289509</v>
+        <v>194565.8624298363</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>590078.7883429889</v>
+        <v>196692.9294476629</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>596437.5923018405</v>
+        <v>198812.5307672801</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>602773.3309954935</v>
+        <v>200924.4436651644</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>609085.363009043</v>
+        <v>203028.4543363476</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>615373.0721368243</v>
+        <v>205124.3573789414</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>621635.8656960479</v>
+        <v>207211.9552320158</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>627873.1727077279</v>
+        <v>209291.0575692425</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>634084.4419533613</v>
+        <v>211361.4806511204</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>640269.1399170578</v>
+        <v>213423.0466390192</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>646426.7486240705</v>
+        <v>215475.58287469</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>652556.7633879283</v>
+        <v>217518.9211293093</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>658658.6904795596</v>
+        <v>219552.8968265197</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>664732.0447330097</v>
+        <v>221577.3482443364</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>670776.347103458</v>
+        <v>223592.1157011525</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_TH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_TH.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>490.5773364383481</v>
+        <v>686.8082710136873</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>491.1507514012744</v>
+        <v>687.6110519617843</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>491.7324058893045</v>
+        <v>688.4253682450264</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>492.3224174992462</v>
+        <v>689.2513844989447</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>492.9209054841101</v>
+        <v>690.0892676777543</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>493.5279907758422</v>
+        <v>690.9391870861792</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>494.1437960083513</v>
+        <v>691.8013144116919</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>494.7684455408366</v>
+        <v>692.6758237571713</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>495.4020654814221</v>
+        <v>693.5628916739911</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>496.0447837110953</v>
+        <v>694.4626971955337</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>496.6967299079582</v>
+        <v>695.3754218711416</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>497.3580355717947</v>
+        <v>696.3012498005127</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>498.0288340489545</v>
+        <v>697.2403676685362</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>498.7092605575613</v>
+        <v>698.1929647805858</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>499.3994522130452</v>
+        <v>699.1592330982633</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>500.099548054007</v>
+        <v>700.1393672756097</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>500.8096890684157</v>
+        <v>701.1335646957821</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>501.5300182201429</v>
+        <v>702.1420255082003</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>502.2606804758412</v>
+        <v>703.164952666178</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>503.0018228321653</v>
+        <v>704.2025519650315</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>503.7535943433459</v>
+        <v>705.2550320806841</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>504.5161461491154</v>
+        <v>706.3226046087615</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>505.2896315029923</v>
+        <v>707.4054841041894</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>506.0742058009287</v>
+        <v>708.5038881213003</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>506.8700266103219</v>
+        <v>709.6180372544508</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>507.6772536993991</v>
+        <v>710.7481551791589</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>508.4960490669754</v>
+        <v>711.8944686937656</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>509.326576972591</v>
+        <v>713.0572077616273</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>510.1690039670338</v>
+        <v>714.2366055538474</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>511.0234989232481</v>
+        <v>715.4328984925473</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>511.8902330676368</v>
+        <v>716.6463262946916</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>512.7693800117603</v>
+        <v>717.8771320164644</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>513.6611157844378</v>
+        <v>719.125562098213</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>514.5656188642546</v>
+        <v>720.3918664099565</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>515.4830702124798</v>
+        <v>721.6762982974718</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>516.4136533064013</v>
+        <v>722.979114628962</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>517.3575541730797</v>
+        <v>724.3005758423117</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>518.3149614235285</v>
+        <v>725.6409459929401</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>519.286066287325</v>
+        <v>727.0004928022551</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>520.2710626476562</v>
+        <v>728.3794877067189</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>521.2701470768043</v>
+        <v>729.7782059075261</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>522.2835188720794</v>
+        <v>731.196926420911</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>523.3113800922013</v>
+        <v>732.6359321290818</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>524.3539355941381</v>
+        <v>734.0955098317934</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>525.4113930704061</v>
+        <v>735.5759502985686</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>526.4839630868347</v>
+        <v>737.0775483215685</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>527.5718591208055</v>
+        <v>738.6006027691278</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>528.6752975999684</v>
+        <v>740.1454166399557</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>529.7944979414383</v>
+        <v>741.7122971180137</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>530.9296825914845</v>
+        <v>743.3015556280783</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>532.0810770657122</v>
+        <v>744.9135078919974</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>533.248909989745</v>
+        <v>746.5484739856431</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>534.4334131404122</v>
+        <v>748.2067783965774</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>535.6348214874522</v>
+        <v>749.8887500824331</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>536.85337323573</v>
+        <v>751.5947225300224</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>538.0893098679812</v>
+        <v>753.3250338151735</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>539.3428761880875</v>
+        <v>755.0800266633225</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>540.614320364889</v>
+        <v>756.8600485108444</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>541.9038939765381</v>
+        <v>758.6654515671531</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>543.2118520554081</v>
+        <v>760.4965928775715</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>544.5384531335558</v>
+        <v>762.3538343869781</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>545.8839592887464</v>
+        <v>764.2375430042448</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>547.2486361910555</v>
+        <v>766.1480906674778</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>548.6327531500422</v>
+        <v>768.0858544100593</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>550.0365831625119</v>
+        <v>770.0512164275165</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>551.460402960869</v>
+        <v>772.0445641452168</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>552.9044930620722</v>
+        <v>774.066290286901</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>554.3691378171942</v>
+        <v>776.1167929440719</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>555.8546254616011</v>
+        <v>778.1964756462415</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>557.3612481657512</v>
+        <v>780.3057474320516</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>558.8893020866278</v>
+        <v>782.4450229212791</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>560.4390874198114</v>
+        <v>784.614722387736</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>562.0109084521998</v>
+        <v>786.8152718330798</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>563.6050736153855</v>
+        <v>789.04710306154</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>565.2218955396997</v>
+        <v>791.31065375558</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>566.8616911089294</v>
+        <v>793.6063675525013</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>568.5247815157213</v>
+        <v>795.9346941220099</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>570.2114923176764</v>
+        <v>798.296089244747</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>571.9221534941518</v>
+        <v>800.6910148918125</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>573.6570995037727</v>
+        <v>803.1199393052816</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>575.4166693426696</v>
+        <v>805.5833370797375</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>577.2012066034489</v>
+        <v>808.0816892448287</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>579.0110595349101</v>
+        <v>810.6154833488745</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>580.8465811025162</v>
+        <v>813.1852135435227</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>582.7081290496353</v>
+        <v>815.7913806694894</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>584.596065959557</v>
+        <v>818.4344923433798</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>586.510759318302</v>
+        <v>821.1150630456229</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>588.4525815782365</v>
+        <v>823.8336142095311</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>590.4219102224994</v>
+        <v>826.5906743114991</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>592.4191278302595</v>
+        <v>829.3867789623633</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>594.4446221428179</v>
+        <v>832.2224709999452</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>596.4987861305636</v>
+        <v>835.0983005827892</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>598.5820180607991</v>
+        <v>838.0148252851186</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>600.6947215664558</v>
+        <v>840.9726101930382</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>602.8373057157057</v>
+        <v>843.9722280019877</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>605.0101850824901</v>
+        <v>847.014259115486</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>607.2137798179813</v>
+        <v>850.099291745174</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>609.4485157229946</v>
+        <v>853.2279220121924</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>611.7148243213627</v>
+        <v>856.4007540499078</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>614.0131429342978</v>
+        <v>859.6184001080171</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>616.3439147557533</v>
+        <v>862.8814806580549</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>618.7075889288108</v>
+        <v>866.1906245003356</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>621.1046206231022</v>
+        <v>869.5464688723432</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>623.5354711132981</v>
+        <v>872.9496595586174</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>626.0006078586772</v>
+        <v>876.4008510021484</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>628.5005045838002</v>
+        <v>879.9007064173203</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>631.0356413603084</v>
+        <v>883.4498979044321</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>633.6065046898757</v>
+        <v>887.0491065658259</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>636.2135875883321</v>
+        <v>890.6990226236653</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>638.8573896709888</v>
+        <v>894.4003455393844</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>641.5384172391878</v>
+        <v>898.1537841348629</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>644.257183368103</v>
+        <v>901.9600567153442</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>647.0142079958237</v>
+        <v>905.8198911941532</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>649.8100180137458</v>
+        <v>909.7340252192444</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>652.6451473583024</v>
+        <v>913.7032063016233</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>655.5201371040658</v>
+        <v>917.7281919456921</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>658.4355355582528</v>
+        <v>921.809749781554</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>661.3918983566641</v>
+        <v>925.9486576993298</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>664.3897885610993</v>
+        <v>930.1457039855391</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>667.4297767582741</v>
+        <v>934.4016874615838</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>670.5124411602884</v>
+        <v>938.7174176244038</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>673.6383677066744</v>
+        <v>943.0937147893439</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>676.8081501680724</v>
+        <v>947.5314102353017</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>680.0223902515709</v>
+        <v>952.0313463521993</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>683.2816977077596</v>
+        <v>956.5943767908635</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>686.5866904395366</v>
+        <v>961.2213666153514</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>689.9379946127222</v>
+        <v>965.9131924578114</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>693.33624476852</v>
+        <v>970.6707426759281</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>696.7820839378875</v>
+        <v>975.4949175130424</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>700.2761637578573</v>
+        <v>980.3866292610001</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>703.8191445898726</v>
+        <v>985.3468024258217</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>707.4116956401936</v>
+        <v>990.3763738962712</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>711.0544950824249</v>
+        <v>995.4762931153948</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>714.7482301822422</v>
+        <v>1000.647522255139</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>718.4935974243645</v>
+        <v>1005.89103639411</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>722.2913026418506</v>
+        <v>1011.207823698591</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>726.1420611477895</v>
+        <v>1016.598885606905</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>730.0465978694442</v>
+        <v>1022.065237017222</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>734.0056474849414</v>
+        <v>1027.607906478918</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>738.0199545625712</v>
+        <v>1033.2279363876</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>742.0902737027818</v>
+        <v>1038.926383183895</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>746.2173696829594</v>
+        <v>1044.704317556143</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>750.4020176050678</v>
+        <v>1050.562824647095</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>754.6450030462537</v>
+        <v>1056.503004264755</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>758.9471222124945</v>
+        <v>1062.525971097492</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>763.3091820954073</v>
+        <v>1068.632854933571</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>767.7320006323002</v>
+        <v>1074.82480088522</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>772.2164068695829</v>
+        <v>1081.102969617416</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>776.7632411296499</v>
+        <v>1087.46853758151</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>781.3733551813355</v>
+        <v>1093.92269725387</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>786.0476124140758</v>
+        <v>1100.466657379706</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>790.7868880158867</v>
+        <v>1107.101643222241</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>795.5920691552946</v>
+        <v>1113.828896817412</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>800.4640551673488</v>
+        <v>1120.649677234288</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>805.403757743849</v>
+        <v>1127.565260841389</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>810.4121011279408</v>
+        <v>1134.576941579117</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>815.4900223132131</v>
+        <v>1141.686031238498</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>820.6384712474639</v>
+        <v>1148.89385974645</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>825.8584110412855</v>
+        <v>1156.2017754578</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>831.1508181816363</v>
+        <v>1163.611145454291</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>836.5166827505705</v>
+        <v>1171.123355850799</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>841.957008649304</v>
+        <v>1178.739812109026</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>847.4728138278003</v>
+        <v>1186.46193935892</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>853.0651305200618</v>
+        <v>1194.291182728086</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>858.7350054853318</v>
+        <v>1202.229007679465</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>864.4835002554094</v>
+        <v>1210.276900357573</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>870.3116913882834</v>
+        <v>1218.436367943597</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>876.2206707283135</v>
+        <v>1226.708939019639</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>882.2115456731782</v>
+        <v>1235.096163942449</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>888.2854394478313</v>
+        <v>1243.599615226964</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>894.4434913857029</v>
+        <v>1252.220887939984</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>900.6868572174054</v>
+        <v>1260.961600104367</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>907.0167093671957</v>
+        <v>1269.823393114074</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>913.4342372574719</v>
+        <v>1278.80793216046</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>919.9406476215726</v>
+        <v>1287.916906670202</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>926.5371648251792</v>
+        <v>1297.152030755251</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>933.2250311966064</v>
+        <v>1306.515043675249</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>940.0055073662973</v>
+        <v>1316.007710312816</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>946.8798726158317</v>
+        <v>1325.631821662164</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>953.8494252367841</v>
+        <v>1335.389195331498</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>960.9154828997644</v>
+        <v>1345.28167605967</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>968.0793830339887</v>
+        <v>1355.311136247584</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>975.3424832177426</v>
+        <v>1365.47947650484</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>982.7061615801088</v>
+        <v>1375.788626212152</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>990.1718172143374</v>
+        <v>1386.240544100072</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>997.740870603256</v>
+        <v>1396.837218844558</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>1005.414764057126</v>
+        <v>1407.580669679976</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>1013.194962164355</v>
+        <v>1418.472947030097</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>1021.08295225551</v>
+        <v>1429.516133157714</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1029.080244881058</v>
+        <v>1440.712342833481</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1037.188374303293</v>
+        <v>1452.063724024611</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>1045.408899002933</v>
+        <v>1463.572458604106</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>1053.743402200836</v>
+        <v>1475.240763081171</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>1062.193492395359</v>
+        <v>1487.070889353502</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>1070.760803915842</v>
+        <v>1499.065125482178</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>1079.446997492758</v>
+        <v>1511.225796489862</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>1088.253760845044</v>
+        <v>1523.555265183062</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>1097.182809285166</v>
+        <v>1536.055932999232</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>1106.235886342476</v>
+        <v>1548.730240879466</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>1115.414764405436</v>
+        <v>1561.58067016761</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>1124.721245383291</v>
+        <v>1574.609743536608</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>1134.157161387791</v>
+        <v>1587.820025942908</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>1143.724375435566</v>
+        <v>1601.214125609793</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>1153.424782171799</v>
+        <v>1614.794695040518</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>1163.260308615806</v>
+        <v>1628.564432062128</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>1173.232914929196</v>
+        <v>1642.526080900874</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>1183.344595207262</v>
+        <v>1656.682433290167</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>1193.597378294274</v>
+        <v>1671.036329611983</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>1203.993328623364</v>
+        <v>1685.59066007271</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>1214.534547081702</v>
+        <v>1700.348365914383</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>1225.223171901658</v>
+        <v>1715.312440662321</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>1236.061379578679</v>
+        <v>1730.485931410151</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>1247.051385816596</v>
+        <v>1745.871940143234</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>1258.195446501103</v>
+        <v>1761.473625101545</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>1269.495858702148</v>
+        <v>1777.294202183007</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>1280.954961705974</v>
+        <v>1793.336946388364</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>1292.575138077591</v>
+        <v>1809.605193308627</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>1304.358814754404</v>
+        <v>1826.102340656166</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>1316.308464171785</v>
+        <v>1842.831849840499</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>1328.426605421354</v>
+        <v>1859.797247589895</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>1340.715805442712</v>
+        <v>1877.002127619797</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>1353.178680249428</v>
+        <v>1894.450152349199</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>1365.817896190007</v>
+        <v>1912.14505466601</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>1378.63617124463</v>
+        <v>1930.090639742482</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>1391.636276358393</v>
+        <v>1948.290786901751</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>1404.82103681182</v>
+        <v>1966.749451536548</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>1418.193333629353</v>
+        <v>1985.470667081094</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>1431.756105026577</v>
+        <v>2004.458547037207</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>1445.512347896852</v>
+        <v>2023.717287055593</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>1459.465119338086</v>
+        <v>2043.25116707332</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>1473.61753822027</v>
+        <v>2063.064553508379</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>1487.972786794463</v>
+        <v>2083.161901512249</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>1502.534112343824</v>
+        <v>2103.547757281353</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>1517.304828877279</v>
+        <v>2124.22676042819</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>1532.288318866393</v>
+        <v>2145.20364641295</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>1547.488035025945</v>
+        <v>2166.483249036324</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>1562.90750213869</v>
+        <v>2188.070502994166</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>1578.550318924723</v>
+        <v>2209.970446494612</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>1594.420159955843</v>
+        <v>2232.18822393818</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>1610.520777615198</v>
+        <v>2254.729088661278</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>1626.856004102505</v>
+        <v>2277.598405743508</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>1643.429753485009</v>
+        <v>2300.801654879013</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>1660.246023794295</v>
+        <v>2324.344433312012</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>1677.308899169011</v>
+        <v>2348.232458836615</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>1694.622552043423</v>
+        <v>2372.471572860792</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>1712.191245381678</v>
+        <v>2397.06774353435</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>1730.019334957531</v>
+        <v>2422.027068940542</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>1748.111271679167</v>
+        <v>2447.355780350834</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>1766.471603958685</v>
+        <v>2473.060245542159</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>1785.104980125629</v>
+        <v>2499.14697217588</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>1804.016150883854</v>
+        <v>2525.622611237395</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>1823.20997181088</v>
+        <v>2552.493960535232</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>1842.691405898714</v>
+        <v>2579.7679682582</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>1862.46552613497</v>
+        <v>2607.451736588959</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>1882.537518122962</v>
+        <v>2635.552525372147</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>1902.912682739252</v>
+        <v>2664.077755834953</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>1923.596438826954</v>
+        <v>2693.035014357736</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>1944.594325922872</v>
+        <v>2722.432056292022</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>1965.912007016395</v>
+        <v>2752.276809822954</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>1987.555271337766</v>
+        <v>2782.577379872872</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>2009.530037173203</v>
+        <v>2813.342052042484</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>2031.842354704018</v>
+        <v>2844.579296585625</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>2054.498408866663</v>
+        <v>2876.297772413329</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>2077.504522230393</v>
+        <v>2908.50633112255</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>2100.867157888845</v>
+        <v>2941.214021044382</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>2124.59292236167</v>
+        <v>2974.430091306339</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>2148.68856850196</v>
+        <v>3008.163995902743</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>2173.160998404863</v>
+        <v>3042.425397766808</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>2198.017266312558</v>
+        <v>3077.224172837582</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>2223.264581510271</v>
+        <v>3112.570414114381</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>2248.910311207763</v>
+        <v>3148.474435690868</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>2274.961983400254</v>
+        <v>3184.946776760356</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>2301.427289702434</v>
+        <v>3221.998205583407</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>2328.314088148735</v>
+        <v>3259.639723408229</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>2355.630405952669</v>
+        <v>3297.882568333737</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>2383.384442217589</v>
+        <v>3336.738219104624</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>2411.584570590776</v>
+        <v>3376.218398827086</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>2440.239341852323</v>
+        <v>3416.335078593253</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>2469.357486429795</v>
+        <v>3457.100481001713</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>2498.947916829174</v>
+        <v>3498.527083560843</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>2529.019729972124</v>
+        <v>3540.627621960974</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>2559.582209429098</v>
+        <v>3583.415093200738</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>2590.64482753729</v>
+        <v>3626.902758552207</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>2622.217247391961</v>
+        <v>3671.104146348746</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>2654.309324699113</v>
+        <v>3716.033054578757</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>2686.931109476971</v>
+        <v>3761.703553267759</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>2720.092847593221</v>
+        <v>3808.12998663051</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>2753.8049821244</v>
+        <v>3855.326974974161</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>2788.078154523326</v>
+        <v>3903.309416332656</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>2822.923205579918</v>
+        <v>3952.092487811887</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>2858.351176160255</v>
+        <v>4001.691646624357</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>2894.373307708155</v>
+        <v>4052.122630791418</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>2931.001042493161</v>
+        <v>4103.401459490425</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>2968.246023588176</v>
+        <v>4155.544433023447</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>3006.120094559671</v>
+        <v>4208.568132383539</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>3044.635298852803</v>
+        <v>4262.489418393924</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>3083.803878853445</v>
+        <v>4317.325430394823</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>3123.638274608616</v>
+        <v>4373.093584452063</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>3164.151122186537</v>
+        <v>4429.811571061152</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>3205.355251657085</v>
+        <v>4487.497352319921</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>3247.263684673146</v>
+        <v>4546.169158542404</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>3756.362447224235</v>
+        <v>5258.907426113928</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>4273.590627581511</v>
+        <v>5983.026878614116</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>4799.089404293843</v>
+        <v>6718.72516601138</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>5333.001809419385</v>
+        <v>7466.202533187139</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>5875.472687184833</v>
+        <v>8225.661762058766</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>6426.648647168</v>
+        <v>8997.3081060352</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>6986.678011782123</v>
+        <v>9781.349216494969</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>7555.710757840864</v>
+        <v>10577.99506097721</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>8133.898451984679</v>
+        <v>11387.45783277855</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>8721.394179752882</v>
+        <v>12209.95185165403</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>9318.352468088815</v>
+        <v>13045.69345532434</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>9924.929201069901</v>
+        <v>13894.90088149786</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>10541.2815286609</v>
+        <v>14757.79414012526</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>11167.56776829506</v>
+        <v>15634.59487561309</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>11803.94729909545</v>
+        <v>16525.52621873363</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>12450.580448559</v>
+        <v>17430.8126279826</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>13107.62837153494</v>
+        <v>18350.67972014891</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>13775.25292134176</v>
+        <v>19285.35408987846</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>14453.61651288029</v>
+        <v>20235.06311803241</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>15142.88197761386</v>
+        <v>21200.0347686594</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>15843.2124103035</v>
+        <v>22180.4973744249</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>16554.77100740268</v>
+        <v>23176.67941036374</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>17277.72089703586</v>
+        <v>24188.8092558502</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>18012.22496050459</v>
+        <v>25217.11494470642</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>18758.44564528717</v>
+        <v>26261.82390340203</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>19516.54476952184</v>
+        <v>27323.16267733057</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>20286.68331798738</v>
+        <v>28401.35664518233</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>21069.02122962237</v>
+        <v>29496.62972147131</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>21863.71717665189</v>
+        <v>30609.20404731265</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>22670.92833542031</v>
+        <v>31739.29966958843</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>23490.81014905864</v>
+        <v>32887.13420868209</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>24323.51608214869</v>
+        <v>34052.92251500816</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>25169.19736757828</v>
+        <v>35236.8763146096</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>26028.0027458174</v>
+        <v>36439.20384414436</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>26900.0781968808</v>
+        <v>37660.10947563311</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>27785.56666527925</v>
+        <v>38899.79333139095</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>28684.60777829912</v>
+        <v>40158.45088961876</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>29597.33755798959</v>
+        <v>41436.27258118543</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>30523.88812727455</v>
+        <v>42733.44337818437</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>31464.3874106462</v>
+        <v>44050.14237490467</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>32418.95882993796</v>
+        <v>45386.54236191314</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>33387.72099571296</v>
+        <v>46742.80939399814</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>34370.78739484545</v>
+        <v>48119.10235278363</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>35368.26607491008</v>
+        <v>49515.57250487412</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>36380.25932603567</v>
+        <v>50932.36305644992</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>37406.86336091466</v>
+        <v>52369.60870528052</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>38448.16799370033</v>
+        <v>53827.43519118045</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>39504.25631855556</v>
+        <v>55305.9588459778</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>40575.20438865512</v>
+        <v>56805.28614411716</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>41661.08089647241</v>
+        <v>58325.51325506138</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>42761.94685621458</v>
+        <v>59866.72559870042</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>43877.85528929571</v>
+        <v>61428.997405014</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>45008.85091376485</v>
+        <v>63012.39127927079</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>46154.9698386271</v>
+        <v>64616.95777407794</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>47316.2392640156</v>
+        <v>66242.73496962184</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>48441.56706731414</v>
+        <v>67818.1938942398</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>49581.39372681872</v>
+        <v>69413.95121754622</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>50735.7163942576</v>
+        <v>71030.00295196065</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>51904.52253573643</v>
+        <v>72666.33155003098</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>53087.78968368502</v>
+        <v>74322.90555715903</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>54285.48520005021</v>
+        <v>75999.67928007028</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>55497.56605168567</v>
+        <v>77696.59247235992</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>56723.97859887518</v>
+        <v>79413.57003842523</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>57964.65839790961</v>
+        <v>81150.52175707347</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>59219.5300186182</v>
+        <v>82907.34202606547</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>60488.50687772543</v>
+        <v>84683.9096288156</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>61771.49108887803</v>
+        <v>86480.08752442923</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>63068.37333014786</v>
+        <v>88295.722662207</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>64379.03272977911</v>
+        <v>90130.64582169075</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>65703.33677090323</v>
+        <v>91984.67147926454</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>67039.16947361572</v>
+        <v>93854.83726306201</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>68388.32520395577</v>
+        <v>95743.65528553807</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>69750.63626534137</v>
+        <v>97650.89077147791</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>71125.92314930515</v>
+        <v>99576.29240902721</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>72513.99454389009</v>
+        <v>101519.5923614461</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>73914.64736416354</v>
+        <v>103480.506309829</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>75327.66680515463</v>
+        <v>105458.7335272165</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>76752.82641744729</v>
+        <v>107453.9569844262</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>78189.88820558744</v>
+        <v>109465.8434878224</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>79638.60274938669</v>
+        <v>111494.0438491414</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>81297.86577718516</v>
+        <v>114588.4032606042</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>82970.03907295727</v>
+        <v>117707.7703469473</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>84654.81841271406</v>
+        <v>120851.6359730299</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>86351.88807385838</v>
+        <v>124019.4718574335</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>88060.9211174933</v>
+        <v>127210.7311536473</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>89781.57969544879</v>
+        <v>130424.8490773414</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>91513.51538147416</v>
+        <v>133661.2435786012</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>93256.36952595535</v>
+        <v>136919.3160578131</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>95009.77363342862</v>
+        <v>140198.4521237175</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>96773.34976207931</v>
+        <v>143498.0223919673</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>98788.5439301455</v>
+        <v>146614.5988165097</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>100814.8591537942</v>
+        <v>149748.8571184404</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>102851.8618006126</v>
+        <v>152900.1532198043</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>104899.1104025942</v>
+        <v>156067.8317673054</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>106956.1562346271</v>
+        <v>159251.2270320888</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>109022.5439105681</v>
+        <v>162449.6638347981</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>111097.8119953813</v>
+        <v>165662.4584932923</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>113181.4936317452</v>
+        <v>168888.9197902581</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>115273.1171794778</v>
+        <v>172128.3499578399</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>117372.2068660578</v>
+        <v>175380.0456762708</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>119375.8815236808</v>
+        <v>177326.6279042436</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>121385.491216111</v>
+        <v>179276.7299020459</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>123400.5627832406</v>
+        <v>181229.7795009704</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>125420.6213164277</v>
+        <v>183185.1992830441</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>127445.1907982994</v>
+        <v>185142.4071040628</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>129473.7947423507</v>
+        <v>187100.8166108992</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>131505.9568304278</v>
+        <v>189059.8377508747</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>133541.201546153</v>
+        <v>191018.8772709639</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>135579.0548023341</v>
+        <v>192977.3392046214</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>137619.0445603772</v>
+        <v>194934.6253440228</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>139827.835802136</v>
+        <v>197057.2700579863</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>142038.5694616475</v>
+        <v>199178.2790629118</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>144250.7733972777</v>
+        <v>201297.0402272309</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>146463.9809137501</v>
+        <v>203412.941918907</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>148677.7313639048</v>
+        <v>205525.3734260121</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>150891.5707285164</v>
+        <v>207633.7253490254</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>153105.0521719441</v>
+        <v>209737.3899631035</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>155317.7365713999</v>
+        <v>211835.7615487657</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>157529.1930176305</v>
+        <v>213928.2366896599</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>159738.9992848333</v>
+        <v>216014.2145363317</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>161946.7422676538</v>
+        <v>218093.0970352158</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>164152.0183831482</v>
+        <v>220164.289122392</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>166354.4339356454</v>
+        <v>222227.1988820267</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>168553.605442494</v>
+        <v>224281.2376698153</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>170749.1599187551</v>
+        <v>226325.8202021994</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>172940.7351189824</v>
+        <v>228360.3646126096</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>175127.9797343245</v>
+        <v>230384.2924765119</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>177310.5535433029</v>
+        <v>232397.0288075902</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>179488.1275147455</v>
+        <v>234398.002027992</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>181660.3838615002</v>
+        <v>236386.6439161769</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>183827.0160437281</v>
+        <v>238362.3895365563</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>185987.7287207525</v>
+        <v>240324.6771557651</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>188142.2376506588</v>
+        <v>242272.9481510778</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>190290.2695370592</v>
+        <v>244206.6469171465</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>192431.5618226979</v>
+        <v>246125.2207778991</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>194565.8624298363</v>
+        <v>248028.1199110678</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>196692.9294476629</v>
+        <v>249914.7972934286</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>198812.5307672801</v>
+        <v>251784.7086753774</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>200924.4436651644</v>
+        <v>253637.3125939708</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>203028.4543363476</v>
+        <v>255472.0704339701</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>205124.3573789414</v>
+        <v>257288.4465467467</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>207211.9552320158</v>
+        <v>259085.9084371259</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>209291.0575692425</v>
+        <v>260863.9270283263</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>211361.4806511204</v>
+        <v>262621.9770150962</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>213423.0466390192</v>
+        <v>264359.5373149389</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>215475.58287469</v>
+        <v>266076.0916269277</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>217518.9211293093</v>
+        <v>267771.1291070528</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>219552.8968265197</v>
+        <v>269444.1451682653</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>221577.3482443364</v>
+        <v>271094.6424124333</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>223592.1157011525</v>
+        <v>272722.1317002412</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_TH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_TH.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>686.8082710136873</v>
+        <v>1471.732009315044</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>687.6110519617843</v>
+        <v>1473.452254203823</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>688.4253682450264</v>
+        <v>1475.197217667914</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>689.2513844989447</v>
+        <v>1476.967252497738</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>690.0892676777543</v>
+        <v>1478.76271645233</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>690.9391870861792</v>
+        <v>1480.583972327527</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>691.8013144116919</v>
+        <v>1482.431388025054</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>692.6758237571713</v>
+        <v>1484.30533662251</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>693.5628916739911</v>
+        <v>1486.206196444266</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>694.4626971955337</v>
+        <v>1488.134351133286</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>695.3754218711416</v>
+        <v>1490.090189723875</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>696.3012498005127</v>
+        <v>1492.074106715384</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>697.2403676685362</v>
+        <v>1494.086502146863</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>698.1929647805858</v>
+        <v>1496.127781672684</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>699.1592330982633</v>
+        <v>1498.198356639135</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>700.1393672756097</v>
+        <v>1500.298644162021</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>701.1335646957821</v>
+        <v>1502.429067205247</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>702.1420255082003</v>
+        <v>1504.590054660429</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>703.164952666178</v>
+        <v>1506.782041427524</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>704.2025519650315</v>
+        <v>1509.005468496496</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>705.2550320806841</v>
+        <v>1511.260783030037</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>706.3226046087615</v>
+        <v>1513.548438447346</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>707.4054841041894</v>
+        <v>1515.868894508977</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>708.5038881213003</v>
+        <v>1518.222617402786</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>709.6180372544508</v>
+        <v>1520.610079830966</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>710.7481551791589</v>
+        <v>1523.031761098197</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>711.8944686937656</v>
+        <v>1525.488147200926</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>713.0572077616273</v>
+        <v>1527.979730917773</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>714.2366055538474</v>
+        <v>1530.507011901102</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>715.4328984925473</v>
+        <v>1533.070496769745</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>716.6463262946916</v>
+        <v>1535.67069920291</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>717.8771320164644</v>
+        <v>1538.308140035281</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>719.125562098213</v>
+        <v>1540.983347353313</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>720.3918664099565</v>
+        <v>1543.696856592764</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>721.6762982974718</v>
+        <v>1546.449210637439</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>722.979114628962</v>
+        <v>1549.240959919204</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>724.3005758423117</v>
+        <v>1552.072662519239</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>725.6409459929401</v>
+        <v>1554.944884270586</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>727.0004928022551</v>
+        <v>1557.858198861974</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>728.3794877067189</v>
+        <v>1560.813187942968</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>729.7782059075261</v>
+        <v>1563.810441230413</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>731.196926420911</v>
+        <v>1566.850556616238</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>732.6359321290818</v>
+        <v>1569.934140276604</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>734.0955098317934</v>
+        <v>1573.061806782414</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>735.5759502985686</v>
+        <v>1576.234179211218</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>737.0775483215685</v>
+        <v>1579.451889260503</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>738.6006027691278</v>
+        <v>1582.715577362416</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>740.1454166399557</v>
+        <v>1586.025892799905</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>741.7122971180137</v>
+        <v>1589.383493824315</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>743.3015556280783</v>
+        <v>1592.789047774454</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>744.9135078919974</v>
+        <v>1596.243231197137</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>746.5484739856431</v>
+        <v>1599.746729969235</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>748.2067783965774</v>
+        <v>1603.300239421237</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>749.8887500824331</v>
+        <v>1606.904464462356</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>751.5947225300224</v>
+        <v>1610.560119707191</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>753.3250338151735</v>
+        <v>1614.267929603944</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>755.0800266633225</v>
+        <v>1618.028628564263</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>756.8600485108444</v>
+        <v>1621.842961094666</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>758.6654515671531</v>
+        <v>1625.711681929614</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>760.4965928775715</v>
+        <v>1629.635556166225</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>762.3538343869781</v>
+        <v>1633.615359400667</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>764.2375430042448</v>
+        <v>1637.651877866239</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>766.1480906674778</v>
+        <v>1641.745908573167</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>768.0858544100593</v>
+        <v>1645.898259450127</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>770.0512164275165</v>
+        <v>1650.109749487535</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>772.0445641452168</v>
+        <v>1654.381208882607</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>774.066290286901</v>
+        <v>1658.713479186216</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>776.1167929440719</v>
+        <v>1663.107413451583</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>778.1964756462415</v>
+        <v>1667.563876384804</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>780.3057474320516</v>
+        <v>1672.083744497254</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>782.4450229212791</v>
+        <v>1676.667906259883</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>784.614722387736</v>
+        <v>1681.317262259434</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>786.8152718330798</v>
+        <v>1686.0327253566</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>789.04710306154</v>
+        <v>1690.815220846157</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>791.31065375558</v>
+        <v>1695.6656866191</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>793.6063675525013</v>
+        <v>1700.585073326789</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>795.9346941220099</v>
+        <v>1705.574344547163</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>798.296089244747</v>
+        <v>1710.634476953029</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>800.6910148918125</v>
+        <v>1715.766460482456</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>803.1199393052816</v>
+        <v>1720.971298511318</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>805.5833370797375</v>
+        <v>1726.250008028008</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>808.0816892448287</v>
+        <v>1731.603619810347</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>810.6154833488745</v>
+        <v>1737.03317860473</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>813.1852135435227</v>
+        <v>1742.539743307549</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>815.7913806694894</v>
+        <v>1748.124387148905</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>818.4344923433798</v>
+        <v>1753.788197878671</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>821.1150630456229</v>
+        <v>1759.532277954906</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>823.8336142095311</v>
+        <v>1765.35774473471</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>826.5906743114991</v>
+        <v>1771.265730667498</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>829.3867789623633</v>
+        <v>1777.257383490778</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>832.2224709999452</v>
+        <v>1783.333866428454</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>835.0983005827892</v>
+        <v>1789.496358391691</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>838.0148252851186</v>
+        <v>1795.746054182397</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>840.9726101930382</v>
+        <v>1802.084164699367</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>843.9722280019877</v>
+        <v>1808.511917147117</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>847.014259115486</v>
+        <v>1815.03055524747</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>850.099291745174</v>
+        <v>1821.641339453944</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>853.2279220121924</v>
+        <v>1828.345547168984</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>856.4007540499078</v>
+        <v>1835.144472964088</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>859.6184001080171</v>
+        <v>1842.039428802894</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>862.8814806580549</v>
+        <v>1849.03174426726</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>866.1906245003356</v>
+        <v>1856.122766786433</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>869.5464688723432</v>
+        <v>1863.313861869307</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>872.9496595586174</v>
+        <v>1870.606413339895</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>876.4008510021484</v>
+        <v>1878.001823576032</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>879.9007064173203</v>
+        <v>1885.501513751401</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>883.4498979044321</v>
+        <v>1893.106924080926</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>887.0491065658259</v>
+        <v>1900.819514069627</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>890.6990226236653</v>
+        <v>1908.640762764997</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>894.4003455393844</v>
+        <v>1916.572169012966</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>898.1537841348629</v>
+        <v>1924.615251717563</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>901.9600567153442</v>
+        <v>1932.771550104309</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>905.8198911941532</v>
+        <v>1941.042623987471</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>909.7340252192444</v>
+        <v>1949.430054041237</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>913.7032063016233</v>
+        <v>1957.935442074907</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>917.7281919456921</v>
+        <v>1966.560411312197</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>921.809749781554</v>
+        <v>1975.306606674758</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>925.9486576993298</v>
+        <v>1984.175695069993</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>930.1457039855391</v>
+        <v>1993.169365683297</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>934.4016874615838</v>
+        <v>2002.289330274822</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>938.7174176244038</v>
+        <v>2011.537323480865</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>943.0937147893439</v>
+        <v>2020.915103120023</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>947.5314102353017</v>
+        <v>2030.424450504218</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>952.0313463521993</v>
+        <v>2040.067170754713</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>956.5943767908635</v>
+        <v>2049.845093123278</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>961.2213666153514</v>
+        <v>2059.76007131861</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>965.9131924578114</v>
+        <v>2069.813983838166</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>970.6707426759281</v>
+        <v>2080.00873430556</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>975.4949175130424</v>
+        <v>2090.346251813663</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>980.3866292610001</v>
+        <v>2100.828491273572</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>985.3468024258217</v>
+        <v>2111.457433769618</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>990.3763738962712</v>
+        <v>2122.235086920581</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>995.4762931153948</v>
+        <v>2133.163485247275</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>1000.647522255139</v>
+        <v>2144.244690546727</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>1005.89103639411</v>
+        <v>2155.480792273093</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>1011.207823698591</v>
+        <v>2166.873907925552</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>1016.598885606905</v>
+        <v>2178.426183443368</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>1022.065237017222</v>
+        <v>2190.139793608333</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>1027.607906478918</v>
+        <v>2202.016942454824</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>1033.2279363876</v>
+        <v>2214.059863687713</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>1038.926383183895</v>
+        <v>2226.270821108345</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>1044.704317556143</v>
+        <v>2238.652109048878</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>1050.562824647095</v>
+        <v>2251.206052815204</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>1056.503004264755</v>
+        <v>2263.935009138761</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>1062.525971097492</v>
+        <v>2276.841366637484</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>1068.632854933571</v>
+        <v>2289.927546286222</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>1074.82480088522</v>
+        <v>2303.1960018969</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>1081.102969617416</v>
+        <v>2316.649220608748</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>1087.46853758151</v>
+        <v>2330.289723388949</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>1093.92269725387</v>
+        <v>2344.120065544007</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>1100.466657379706</v>
+        <v>2358.142837242227</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>1107.101643222241</v>
+        <v>2372.36066404766</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>1113.828896817412</v>
+        <v>2386.776207465883</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>1120.649677234288</v>
+        <v>2401.392165502046</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>1127.565260841389</v>
+        <v>2416.211273231547</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>1134.576941579117</v>
+        <v>2431.236303383823</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>1141.686031238498</v>
+        <v>2446.470066939639</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>1148.89385974645</v>
+        <v>2461.915413742392</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>1156.2017754578</v>
+        <v>2477.575233123856</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>1163.611145454291</v>
+        <v>2493.452454544909</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>1171.123355850799</v>
+        <v>2509.550048251712</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>1178.739812109026</v>
+        <v>2525.871025947912</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>1186.46193935892</v>
+        <v>2542.418441483401</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>1194.291182728086</v>
+        <v>2559.195391560185</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>1202.229007679465</v>
+        <v>2576.205016455995</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>1210.276900357573</v>
+        <v>2593.450500766227</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>1218.436367943597</v>
+        <v>2610.93507416485</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>1226.708939019639</v>
+        <v>2628.662012184941</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>1235.096163942449</v>
+        <v>2646.634637019535</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>1243.599615226964</v>
+        <v>2664.856318343494</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>1252.220887939984</v>
+        <v>2683.330474157109</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>1260.961600104367</v>
+        <v>2702.060571652216</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>1269.823393114074</v>
+        <v>2721.050128101587</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>1278.80793216046</v>
+        <v>2740.302711772415</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>1287.916906670202</v>
+        <v>2759.821942864718</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>1297.152030755251</v>
+        <v>2779.611494475538</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>1306.515043675249</v>
+        <v>2799.675093589819</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>1316.007710312816</v>
+        <v>2820.016522098892</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>1325.631821662164</v>
+        <v>2840.639617847495</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>1335.389195331498</v>
+        <v>2861.548275710353</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>1345.28167605967</v>
+        <v>2882.746448699293</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>1355.311136247584</v>
+        <v>2904.238149101966</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>1365.47947650484</v>
+        <v>2926.027449653227</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>1375.788626212152</v>
+        <v>2948.118484740326</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>1386.240544100072</v>
+        <v>2970.515451643012</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>1396.837218844558</v>
+        <v>2993.222611809768</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>1407.580669679976</v>
+        <v>3016.244292171378</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>1418.472947030097</v>
+        <v>3039.584886493065</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>1429.516133157714</v>
+        <v>3063.24885676653</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1440.712342833481</v>
+        <v>3087.240734643173</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1452.063724024611</v>
+        <v>3111.565122909879</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>1463.572458604106</v>
+        <v>3136.226697008799</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>1475.240763081171</v>
+        <v>3161.230206602509</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>1487.070889353502</v>
+        <v>3186.580477186076</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>1499.065125482178</v>
+        <v>3212.282411747525</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>1511.225796489862</v>
+        <v>3238.340992478274</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>1523.555265183062</v>
+        <v>3264.761282535132</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>1536.055932999232</v>
+        <v>3291.548427855498</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>1548.730240879466</v>
+        <v>3318.707659027426</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>1561.58067016761</v>
+        <v>3346.244293216307</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>1574.609743536608</v>
+        <v>3374.163736149874</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>1587.820025942908</v>
+        <v>3402.471484163374</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>1601.214125609793</v>
+        <v>3431.173126306699</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>1614.794695040518</v>
+        <v>3460.274346515397</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>1628.564432062128</v>
+        <v>3489.780925847416</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>1642.526080900874</v>
+        <v>3519.698744787587</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>1656.682433290167</v>
+        <v>3550.033785621786</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>1671.036329611983</v>
+        <v>3580.792134882821</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>1685.59066007271</v>
+        <v>3611.979985870092</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>1700.348365914383</v>
+        <v>3643.603641245105</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>1715.312440662321</v>
+        <v>3675.669515704973</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>1730.485931410151</v>
+        <v>3708.184138736037</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>1745.871940143234</v>
+        <v>3741.154157449788</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>1761.473625101545</v>
+        <v>3774.586339503311</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>1777.294202183007</v>
+        <v>3808.487576106443</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>1793.336946388364</v>
+        <v>3842.864885117922</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>1809.605193308627</v>
+        <v>3877.725414232774</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>1826.102340656166</v>
+        <v>3913.076444263213</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>1842.831849840499</v>
+        <v>3948.925392515355</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>1859.797247589895</v>
+        <v>3985.27981626406</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>1877.002127619797</v>
+        <v>4022.147416328135</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>1894.450152349199</v>
+        <v>4059.536040748284</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>1912.14505466601</v>
+        <v>4097.45368857002</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>1930.090639742482</v>
+        <v>4135.90851373389</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>1948.290786901751</v>
+        <v>4174.90882907518</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>1966.749451536548</v>
+        <v>4214.463110435458</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>1985.470667081094</v>
+        <v>4254.58000088806</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>2004.458547037207</v>
+        <v>4295.268315079729</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>2023.717287055593</v>
+        <v>4336.537043690556</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>2043.25116707332</v>
+        <v>4378.395358014256</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>2063.064553508379</v>
+        <v>4420.85261466081</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>2083.161901512249</v>
+        <v>4463.91836038339</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>2103.547757281353</v>
+        <v>4507.602337031472</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>2124.22676042819</v>
+        <v>4551.914486631837</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>2145.20364641295</v>
+        <v>4596.864956599177</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>2166.483249036324</v>
+        <v>4642.464105077835</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>2188.070502994166</v>
+        <v>4688.72250641607</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>2209.970446494612</v>
+        <v>4735.650956774169</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>2232.18822393818</v>
+        <v>4783.260479867528</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>2254.729088661278</v>
+        <v>4831.562332845594</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>2277.598405743508</v>
+        <v>4880.568012307516</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>2300.801654879013</v>
+        <v>4930.289260455027</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>2324.344433312012</v>
+        <v>4980.738071382884</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>2348.232458836615</v>
+        <v>5031.926697507031</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>2372.471572860792</v>
+        <v>5083.867656130267</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>2397.06774353435</v>
+        <v>5136.573736145034</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>2422.027068940542</v>
+        <v>5190.058004872591</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>2447.355780350834</v>
+        <v>5244.3338150375</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>2473.060245542159</v>
+        <v>5299.414811876055</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>2499.14697217588</v>
+        <v>5355.314940376886</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>2525.622611237395</v>
+        <v>5412.048452651561</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>2552.493960535232</v>
+        <v>5469.629915432639</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>2579.7679682582</v>
+        <v>5528.074217696143</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>2607.451736588959</v>
+        <v>5587.396578404911</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>2635.552525372147</v>
+        <v>5647.612554368885</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>2664.077755834953</v>
+        <v>5708.738048217756</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>2693.035014357736</v>
+        <v>5770.789316480863</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>2722.432056292022</v>
+        <v>5833.782977768617</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>2752.276809822954</v>
+        <v>5897.736021049186</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>2782.577379872872</v>
+        <v>5962.665814013298</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>2813.342052042484</v>
+        <v>6028.590111519607</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>2844.579296585625</v>
+        <v>6095.527064112053</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>2876.297772413329</v>
+        <v>6163.495226599989</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>2908.50633112255</v>
+        <v>6232.513566691179</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>2941.214021044382</v>
+        <v>6302.601473666533</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>2974.430091306339</v>
+        <v>6373.778767085012</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>3008.163995902743</v>
+        <v>6446.065705505879</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>3042.425397766808</v>
+        <v>6519.482995214588</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>3077.224172837582</v>
+        <v>6594.051798937674</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>3112.570414114381</v>
+        <v>6669.793744530814</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>3148.474435690868</v>
+        <v>6746.730933623288</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>3184.946776760356</v>
+        <v>6824.885950200763</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>3221.998205583407</v>
+        <v>6904.281869107301</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>3259.639723408229</v>
+        <v>6984.942264446205</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>3297.882568333737</v>
+        <v>7066.891217858008</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>3336.738219104624</v>
+        <v>7150.153326652766</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>3376.218398827086</v>
+        <v>7234.753711772326</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>3416.335078593253</v>
+        <v>7320.71802555697</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>3457.100481001713</v>
+        <v>7408.072459289386</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>3498.527083560843</v>
+        <v>7496.84375048752</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>3540.627621960974</v>
+        <v>7587.05918991637</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>3583.415093200738</v>
+        <v>7678.746628287292</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>3626.902758552207</v>
+        <v>7771.934482611871</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>3671.104146348746</v>
+        <v>7866.651742175884</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>3716.033054578757</v>
+        <v>7962.927974097338</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>3761.703553267759</v>
+        <v>8060.793328430912</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>3808.12998663051</v>
+        <v>8160.278542779663</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>3855.326974974161</v>
+        <v>8261.414946373201</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>3903.309416332656</v>
+        <v>8364.234463569977</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>3952.092487811887</v>
+        <v>8468.769616739755</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>4001.691646624357</v>
+        <v>8575.053528480765</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>4052.122630791418</v>
+        <v>8683.119923124465</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>4103.401459490425</v>
+        <v>8793.003127479482</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>4155.544433023447</v>
+        <v>8904.738070764528</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>4208.568132383539</v>
+        <v>9018.360283679011</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>4262.489418393924</v>
+        <v>9133.90589655841</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>4317.325430394823</v>
+        <v>9251.411636560337</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>4373.093584452063</v>
+        <v>9370.914823825848</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>4429.811571061152</v>
+        <v>9492.45336655961</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>4487.497352319921</v>
+        <v>9616.065754971258</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>4546.169158542404</v>
+        <v>9741.791054019437</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>5258.907426113928</v>
+        <v>11269.0873416727</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>5983.026878614116</v>
+        <v>12820.77188274453</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>6718.72516601138</v>
+        <v>14397.26821288152</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>7466.202533187139</v>
+        <v>15999.00542825815</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>8225.661762058766</v>
+        <v>17626.4180615545</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>8997.3081060352</v>
+        <v>19279.945941504</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>9781.349216494969</v>
+        <v>20960.03403534636</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>10577.99506097721</v>
+        <v>22667.13227352259</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>11387.45783277855</v>
+        <v>24401.69535595403</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>12209.95185165403</v>
+        <v>26164.18253925864</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>13045.69345532434</v>
+        <v>27955.05740426643</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>13894.90088149786</v>
+        <v>29774.78760320969</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>14757.79414012526</v>
+        <v>31623.8445859827</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>15634.59487561309</v>
+        <v>33502.70330488519</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>16525.52621873363</v>
+        <v>35411.84189728634</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>17430.8126279826</v>
+        <v>37351.74134567697</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>18350.67972014891</v>
+        <v>39322.88511460481</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>19285.35408987846</v>
+        <v>41325.75876402525</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>20235.06311803241</v>
+        <v>43360.84953864088</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>21200.0347686594</v>
+        <v>45428.64593284155</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>22180.4973744249</v>
+        <v>47529.63723091049</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>23176.67941036374</v>
+        <v>49664.31302220801</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>24188.8092558502</v>
+        <v>51833.16269110757</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>25217.11494470642</v>
+        <v>54036.67488151375</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>26261.82390340203</v>
+        <v>56275.33693586149</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>27323.16267733057</v>
+        <v>58549.6343085655</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>28401.35664518233</v>
+        <v>60860.04995396212</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>29496.62972147131</v>
+        <v>63207.06368886708</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>30609.20404731265</v>
+        <v>65591.15152995566</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>31739.29966958843</v>
+        <v>68012.78500626089</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>32887.13420868209</v>
+        <v>70472.4304471759</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>34052.92251500816</v>
+        <v>72970.54824644605</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>35236.8763146096</v>
+        <v>75507.59210273482</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>36439.20384414436</v>
+        <v>78084.00823745217</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>37660.10947563311</v>
+        <v>80700.23459064237</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>38899.79333139095</v>
+        <v>83356.69999583773</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>40158.45088961876</v>
+        <v>86053.82333489732</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>41436.27258118543</v>
+        <v>88792.01267396877</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>42733.44337818437</v>
+        <v>91571.66438182362</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>44050.14237490467</v>
+        <v>94393.16223193856</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>45386.54236191314</v>
+        <v>97256.87648981383</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>46742.80939399814</v>
+        <v>100163.1629871388</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>48119.10235278363</v>
+        <v>103112.3621845363</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>49515.57250487412</v>
+        <v>106104.7982247302</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>50932.36305644992</v>
+        <v>109140.777978107</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>52369.60870528052</v>
+        <v>112220.5900827439</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>53827.43519118045</v>
+        <v>115344.5039811009</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>55305.9588459778</v>
+        <v>118512.7689556667</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>56805.28614411716</v>
+        <v>121725.6131659653</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>58325.51325506138</v>
+        <v>124983.2426894172</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>59866.72559870042</v>
+        <v>128285.8405686437</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>61428.997405014</v>
+        <v>131633.5658678871</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>63012.39127927079</v>
+        <v>135026.5527412945</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>64616.95777407794</v>
+        <v>138464.9095158812</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>66242.73496962184</v>
+        <v>141948.7177920468</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>67818.1938942398</v>
+        <v>145324.7012019424</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>69413.95121754622</v>
+        <v>148744.1811804561</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>71030.00295196065</v>
+        <v>152207.1491827727</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>72666.33155003098</v>
+        <v>155713.5676072092</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>74322.90555715903</v>
+        <v>159263.369051055</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>75999.67928007028</v>
+        <v>162856.4556001505</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>77696.59247235992</v>
+        <v>166492.6981550569</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>79413.57003842523</v>
+        <v>170171.9357966254</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>81150.52175707347</v>
+        <v>173893.9751937287</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>82907.34202606547</v>
+        <v>177658.5900558545</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>84683.9096288156</v>
+        <v>181465.5206331761</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>86480.08752442923</v>
+        <v>185314.473266634</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>88295.722662207</v>
+        <v>189205.1199904435</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>90130.64582169075</v>
+        <v>193137.0981893371</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>91984.67147926454</v>
+        <v>197110.0103127095</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>93854.83726306201</v>
+        <v>201117.508420847</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>95743.65528553807</v>
+        <v>205164.9756118671</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>97650.89077147791</v>
+        <v>209251.9087960239</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>99576.29240902721</v>
+        <v>213377.7694479153</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>101519.5923614461</v>
+        <v>217541.9836316701</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>103480.506309829</v>
+        <v>221743.9420924904</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>105458.7335272165</v>
+        <v>225983.0004154637</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>107453.9569844262</v>
+        <v>230258.4792523416</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>109465.8434878224</v>
+        <v>234569.6646167621</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>111494.0438491414</v>
+        <v>238915.8082481599</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>114588.4032606042</v>
+        <v>243893.5973315552</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>117707.7703469473</v>
+        <v>248910.1172188716</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>120851.6359730299</v>
+        <v>253964.4552381419</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>124019.4718574335</v>
+        <v>259055.6642215748</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>127210.7311536473</v>
+        <v>264182.7633524797</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>130424.8490773414</v>
+        <v>269344.7390863461</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>133661.2435786012</v>
+        <v>274540.5461444222</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>136919.3160578131</v>
+        <v>279769.1085778658</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>140198.4521237175</v>
+        <v>285029.3209002855</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>143498.0223919673</v>
+        <v>290320.0492862376</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>146614.5988165097</v>
+        <v>296365.6317904362</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>149748.8571184404</v>
+        <v>302444.5774613823</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>152900.1532198043</v>
+        <v>308555.5854018377</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>156067.8317673054</v>
+        <v>314697.3312077824</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>159251.2270320888</v>
+        <v>320868.4687038809</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>162449.6638347981</v>
+        <v>327067.6317317041</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>165662.4584932923</v>
+        <v>333293.4359861436</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>168888.9197902581</v>
+        <v>339544.4808952351</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>172128.3499578399</v>
+        <v>345819.3515384331</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>175380.0456762708</v>
+        <v>352116.6205981732</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>177326.6279042436</v>
+        <v>358127.6445710421</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>179276.7299020459</v>
+        <v>364156.4736483329</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>181229.7795009704</v>
+        <v>370201.6883497217</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>183185.1992830441</v>
+        <v>376261.8639492829</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>185142.4071040628</v>
+        <v>382335.5723948981</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>187100.8166108992</v>
+        <v>388421.384227052</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>189059.8377508747</v>
+        <v>394517.8704912833</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>191018.8772709639</v>
+        <v>400623.6046384587</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>192977.3392046214</v>
+        <v>406737.1644070022</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>194934.6253440228</v>
+        <v>412857.1336811316</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>197057.2700579863</v>
+        <v>419483.5074064078</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>199178.2790629118</v>
+        <v>426115.7083849424</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>201297.0402272309</v>
+        <v>432752.3201918332</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>203412.941918907</v>
+        <v>439391.9427412502</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>205525.3734260121</v>
+        <v>446033.1940917144</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>207633.7253490254</v>
+        <v>452674.7121855491</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>209737.3899631035</v>
+        <v>459315.1565158325</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>211835.7615487657</v>
+        <v>465953.2097141996</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>213928.2366896599</v>
+        <v>472587.5790528915</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>216014.2145363317</v>
+        <v>479216.9978544998</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>218093.0970352158</v>
+        <v>485840.2268029615</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>220164.289122392</v>
+        <v>492456.0551494446</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>222227.1988820267</v>
+        <v>499063.3018069362</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>224281.2376698153</v>
+        <v>505660.8163274819</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>226325.8202021994</v>
+        <v>512247.4797562654</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>228360.3646126096</v>
+        <v>518822.2053569474</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>230384.2924765119</v>
+        <v>525383.9392029736</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>232397.0288075902</v>
+        <v>531931.6606299089</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>234398.002027992</v>
+        <v>538464.3825442366</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>236386.6439161769</v>
+        <v>544981.1515845009</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>238362.3895365563</v>
+        <v>551481.0481311845</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>240324.6771557651</v>
+        <v>557963.1861622578</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>242272.9481510778</v>
+        <v>564426.7129519765</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>244206.6469171465</v>
+        <v>570870.808611178</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>246125.2207778991</v>
+        <v>577294.6854680941</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>248028.1199110678</v>
+        <v>583697.587289509</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>249914.7972934286</v>
+        <v>590078.7883429889</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>251784.7086753774</v>
+        <v>596437.5923018405</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>253637.3125939708</v>
+        <v>602773.3309954935</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>255472.0704339701</v>
+        <v>609085.363009043</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>257288.4465467467</v>
+        <v>615373.0721368243</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>259085.9084371259</v>
+        <v>621635.8656960479</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>260863.9270283263</v>
+        <v>627873.1727077279</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>262621.9770150962</v>
+        <v>634084.4419533613</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>264359.5373149389</v>
+        <v>640269.1399170578</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>266076.0916269277</v>
+        <v>646426.7486240705</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>267771.1291070528</v>
+        <v>652556.7633879283</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>269444.1451682653</v>
+        <v>658658.6904795596</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>271094.6424124333</v>
+        <v>664732.0447330097</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>272722.1317002412</v>
+        <v>670776.347103458</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_TH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_TH.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>1471.732009315044</v>
+        <v>686.8082710136873</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>1473.452254203823</v>
+        <v>687.6110519617843</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>1475.197217667914</v>
+        <v>688.4253682450264</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>1476.967252497738</v>
+        <v>689.2513844989447</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>1478.76271645233</v>
+        <v>690.0892676777543</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>1480.583972327527</v>
+        <v>690.9391870861792</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>1482.431388025054</v>
+        <v>691.8013144116919</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>1484.30533662251</v>
+        <v>692.6758237571713</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>1486.206196444266</v>
+        <v>693.5628916739911</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>1488.134351133286</v>
+        <v>694.4626971955337</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>1490.090189723875</v>
+        <v>695.3754218711416</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>1492.074106715384</v>
+        <v>696.3012498005127</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>1494.086502146863</v>
+        <v>697.2403676685362</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>1496.127781672684</v>
+        <v>698.1929647805858</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>1498.198356639135</v>
+        <v>699.1592330982633</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>1500.298644162021</v>
+        <v>700.1393672756097</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>1502.429067205247</v>
+        <v>701.1335646957821</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>1504.590054660429</v>
+        <v>702.1420255082003</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>1506.782041427524</v>
+        <v>703.164952666178</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>1509.005468496496</v>
+        <v>704.2025519650315</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>1511.260783030037</v>
+        <v>705.2550320806841</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>1513.548438447346</v>
+        <v>706.3226046087615</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>1515.868894508977</v>
+        <v>707.4054841041894</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>1518.222617402786</v>
+        <v>708.5038881213003</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>1520.610079830966</v>
+        <v>709.6180372544508</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>1523.031761098197</v>
+        <v>710.7481551791589</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>1525.488147200926</v>
+        <v>711.8944686937656</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>1527.979730917773</v>
+        <v>713.0572077616273</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>1530.507011901102</v>
+        <v>714.2366055538474</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>1533.070496769745</v>
+        <v>715.4328984925473</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>1535.67069920291</v>
+        <v>716.6463262946916</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>1538.308140035281</v>
+        <v>717.8771320164644</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>1540.983347353313</v>
+        <v>719.125562098213</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>1543.696856592764</v>
+        <v>720.3918664099565</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>1546.449210637439</v>
+        <v>721.6762982974718</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>1549.240959919204</v>
+        <v>722.979114628962</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>1552.072662519239</v>
+        <v>724.3005758423117</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>1554.944884270586</v>
+        <v>725.6409459929401</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>1557.858198861974</v>
+        <v>727.0004928022551</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>1560.813187942968</v>
+        <v>728.3794877067189</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>1563.810441230413</v>
+        <v>729.7782059075261</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>1566.850556616238</v>
+        <v>731.196926420911</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>1569.934140276604</v>
+        <v>732.6359321290818</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>1573.061806782414</v>
+        <v>734.0955098317934</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>1576.234179211218</v>
+        <v>735.5759502985686</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>1579.451889260503</v>
+        <v>737.0775483215685</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>1582.715577362416</v>
+        <v>738.6006027691278</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>1586.025892799905</v>
+        <v>740.1454166399557</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>1589.383493824315</v>
+        <v>741.7122971180137</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>1592.789047774454</v>
+        <v>743.3015556280783</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>1596.243231197137</v>
+        <v>744.9135078919974</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>1599.746729969235</v>
+        <v>746.5484739856431</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>1603.300239421237</v>
+        <v>748.2067783965774</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>1606.904464462356</v>
+        <v>749.8887500824331</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>1610.560119707191</v>
+        <v>751.5947225300224</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>1614.267929603944</v>
+        <v>753.3250338151735</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>1618.028628564263</v>
+        <v>755.0800266633225</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>1621.842961094666</v>
+        <v>756.8600485108444</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>1625.711681929614</v>
+        <v>758.6654515671531</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>1629.635556166225</v>
+        <v>760.4965928775715</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>1633.615359400667</v>
+        <v>762.3538343869781</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>1637.651877866239</v>
+        <v>764.2375430042448</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>1641.745908573167</v>
+        <v>766.1480906674778</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>1645.898259450127</v>
+        <v>768.0858544100593</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>1650.109749487535</v>
+        <v>770.0512164275165</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>1654.381208882607</v>
+        <v>772.0445641452168</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>1658.713479186216</v>
+        <v>774.066290286901</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>1663.107413451583</v>
+        <v>776.1167929440719</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>1667.563876384804</v>
+        <v>778.1964756462415</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>1672.083744497254</v>
+        <v>780.3057474320516</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>1676.667906259883</v>
+        <v>782.4450229212791</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>1681.317262259434</v>
+        <v>784.614722387736</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>1686.0327253566</v>
+        <v>786.8152718330798</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>1690.815220846157</v>
+        <v>789.04710306154</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>1695.6656866191</v>
+        <v>791.31065375558</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>1700.585073326789</v>
+        <v>793.6063675525013</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>1705.574344547163</v>
+        <v>795.9346941220099</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>1710.634476953029</v>
+        <v>798.296089244747</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>1715.766460482456</v>
+        <v>800.6910148918125</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>1720.971298511318</v>
+        <v>803.1199393052816</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>1726.250008028008</v>
+        <v>805.5833370797375</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>1731.603619810347</v>
+        <v>808.0816892448287</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>1737.03317860473</v>
+        <v>810.6154833488745</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>1742.539743307549</v>
+        <v>813.1852135435227</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>1748.124387148905</v>
+        <v>815.7913806694894</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>1753.788197878671</v>
+        <v>818.4344923433798</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>1759.532277954906</v>
+        <v>821.1150630456229</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>1765.35774473471</v>
+        <v>823.8336142095311</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>1771.265730667498</v>
+        <v>826.5906743114991</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>1777.257383490778</v>
+        <v>829.3867789623633</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>1783.333866428454</v>
+        <v>832.2224709999452</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>1789.496358391691</v>
+        <v>835.0983005827892</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>1795.746054182397</v>
+        <v>838.0148252851186</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>1802.084164699367</v>
+        <v>840.9726101930382</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>1808.511917147117</v>
+        <v>843.9722280019877</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>1815.03055524747</v>
+        <v>847.014259115486</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>1821.641339453944</v>
+        <v>850.099291745174</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>1828.345547168984</v>
+        <v>853.2279220121924</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>1835.144472964088</v>
+        <v>856.4007540499078</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>1842.039428802894</v>
+        <v>859.6184001080171</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>1849.03174426726</v>
+        <v>862.8814806580549</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>1856.122766786433</v>
+        <v>866.1906245003356</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>1863.313861869307</v>
+        <v>869.5464688723432</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>1870.606413339895</v>
+        <v>872.9496595586174</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>1878.001823576032</v>
+        <v>876.4008510021484</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>1885.501513751401</v>
+        <v>879.9007064173203</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>1893.106924080926</v>
+        <v>883.4498979044321</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>1900.819514069627</v>
+        <v>887.0491065658259</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>1908.640762764997</v>
+        <v>890.6990226236653</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>1916.572169012966</v>
+        <v>894.4003455393844</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>1924.615251717563</v>
+        <v>898.1537841348629</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>1932.771550104309</v>
+        <v>901.9600567153442</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>1941.042623987471</v>
+        <v>905.8198911941532</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>1949.430054041237</v>
+        <v>909.7340252192444</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>1957.935442074907</v>
+        <v>913.7032063016233</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>1966.560411312197</v>
+        <v>917.7281919456921</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>1975.306606674758</v>
+        <v>921.809749781554</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>1984.175695069993</v>
+        <v>925.9486576993298</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>1993.169365683297</v>
+        <v>930.1457039855391</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>2002.289330274822</v>
+        <v>934.4016874615838</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>2011.537323480865</v>
+        <v>938.7174176244038</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>2020.915103120023</v>
+        <v>943.0937147893439</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>2030.424450504218</v>
+        <v>947.5314102353017</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>2040.067170754713</v>
+        <v>952.0313463521993</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>2049.845093123278</v>
+        <v>956.5943767908635</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>2059.76007131861</v>
+        <v>961.2213666153514</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>2069.813983838166</v>
+        <v>965.9131924578114</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>2080.00873430556</v>
+        <v>970.6707426759281</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>2090.346251813663</v>
+        <v>975.4949175130424</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>2100.828491273572</v>
+        <v>980.3866292610001</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>2111.457433769618</v>
+        <v>985.3468024258217</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>2122.235086920581</v>
+        <v>990.3763738962712</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>2133.163485247275</v>
+        <v>995.4762931153948</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>2144.244690546727</v>
+        <v>1000.647522255139</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>2155.480792273093</v>
+        <v>1005.89103639411</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>2166.873907925552</v>
+        <v>1011.207823698591</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>2178.426183443368</v>
+        <v>1016.598885606905</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>2190.139793608333</v>
+        <v>1022.065237017222</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>2202.016942454824</v>
+        <v>1027.607906478918</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>2214.059863687713</v>
+        <v>1033.2279363876</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>2226.270821108345</v>
+        <v>1038.926383183895</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>2238.652109048878</v>
+        <v>1044.704317556143</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>2251.206052815204</v>
+        <v>1050.562824647095</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>2263.935009138761</v>
+        <v>1056.503004264755</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>2276.841366637484</v>
+        <v>1062.525971097492</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>2289.927546286222</v>
+        <v>1068.632854933571</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>2303.1960018969</v>
+        <v>1074.82480088522</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>2316.649220608748</v>
+        <v>1081.102969617416</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>2330.289723388949</v>
+        <v>1087.46853758151</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>2344.120065544007</v>
+        <v>1093.92269725387</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>2358.142837242227</v>
+        <v>1100.466657379706</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>2372.36066404766</v>
+        <v>1107.101643222241</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>2386.776207465883</v>
+        <v>1113.828896817412</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>2401.392165502046</v>
+        <v>1120.649677234288</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>2416.211273231547</v>
+        <v>1127.565260841389</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>2431.236303383823</v>
+        <v>1134.576941579117</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>2446.470066939639</v>
+        <v>1141.686031238498</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>2461.915413742392</v>
+        <v>1148.89385974645</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>2477.575233123856</v>
+        <v>1156.2017754578</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>2493.452454544909</v>
+        <v>1163.611145454291</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>2509.550048251712</v>
+        <v>1171.123355850799</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>2525.871025947912</v>
+        <v>1178.739812109026</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>2542.418441483401</v>
+        <v>1186.46193935892</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>2559.195391560185</v>
+        <v>1194.291182728086</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>2576.205016455995</v>
+        <v>1202.229007679465</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>2593.450500766227</v>
+        <v>1210.276900357573</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>2610.93507416485</v>
+        <v>1218.436367943597</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>2628.662012184941</v>
+        <v>1226.708939019639</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>2646.634637019535</v>
+        <v>1235.096163942449</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>2664.856318343494</v>
+        <v>1243.599615226964</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>2683.330474157109</v>
+        <v>1252.220887939984</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>2702.060571652216</v>
+        <v>1260.961600104367</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>2721.050128101587</v>
+        <v>1269.823393114074</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>2740.302711772415</v>
+        <v>1278.80793216046</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>2759.821942864718</v>
+        <v>1287.916906670202</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>2779.611494475538</v>
+        <v>1297.152030755251</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>2799.675093589819</v>
+        <v>1306.515043675249</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>2820.016522098892</v>
+        <v>1316.007710312816</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>2840.639617847495</v>
+        <v>1325.631821662164</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>2861.548275710353</v>
+        <v>1335.389195331498</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>2882.746448699293</v>
+        <v>1345.28167605967</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>2904.238149101966</v>
+        <v>1355.311136247584</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>2926.027449653227</v>
+        <v>1365.47947650484</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>2948.118484740326</v>
+        <v>1375.788626212152</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>2970.515451643012</v>
+        <v>1386.240544100072</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>2993.222611809768</v>
+        <v>1396.837218844558</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>3016.244292171378</v>
+        <v>1407.580669679976</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>3039.584886493065</v>
+        <v>1418.472947030097</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>3063.24885676653</v>
+        <v>1429.516133157714</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>3087.240734643173</v>
+        <v>1440.712342833481</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>3111.565122909879</v>
+        <v>1452.063724024611</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>3136.226697008799</v>
+        <v>1463.572458604106</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>3161.230206602509</v>
+        <v>1475.240763081171</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>3186.580477186076</v>
+        <v>1487.070889353502</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>3212.282411747525</v>
+        <v>1499.065125482178</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>3238.340992478274</v>
+        <v>1511.225796489862</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>3264.761282535132</v>
+        <v>1523.555265183062</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>3291.548427855498</v>
+        <v>1536.055932999232</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>3318.707659027426</v>
+        <v>1548.730240879466</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>3346.244293216307</v>
+        <v>1561.58067016761</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>3374.163736149874</v>
+        <v>1574.609743536608</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>3402.471484163374</v>
+        <v>1587.820025942908</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>3431.173126306699</v>
+        <v>1601.214125609793</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>3460.274346515397</v>
+        <v>1614.794695040518</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>3489.780925847416</v>
+        <v>1628.564432062128</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>3519.698744787587</v>
+        <v>1642.526080900874</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>3550.033785621786</v>
+        <v>1656.682433290167</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>3580.792134882821</v>
+        <v>1671.036329611983</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>3611.979985870092</v>
+        <v>1685.59066007271</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>3643.603641245105</v>
+        <v>1700.348365914383</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>3675.669515704973</v>
+        <v>1715.312440662321</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>3708.184138736037</v>
+        <v>1730.485931410151</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>3741.154157449788</v>
+        <v>1745.871940143234</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>3774.586339503311</v>
+        <v>1761.473625101545</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>3808.487576106443</v>
+        <v>1777.294202183007</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>3842.864885117922</v>
+        <v>1793.336946388364</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>3877.725414232774</v>
+        <v>1809.605193308627</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>3913.076444263213</v>
+        <v>1826.102340656166</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>3948.925392515355</v>
+        <v>1842.831849840499</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>3985.27981626406</v>
+        <v>1859.797247589895</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>4022.147416328135</v>
+        <v>1877.002127619797</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>4059.536040748284</v>
+        <v>1894.450152349199</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>4097.45368857002</v>
+        <v>1912.14505466601</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>4135.90851373389</v>
+        <v>1930.090639742482</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>4174.90882907518</v>
+        <v>1948.290786901751</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>4214.463110435458</v>
+        <v>1966.749451536548</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>4254.58000088806</v>
+        <v>1985.470667081094</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>4295.268315079729</v>
+        <v>2004.458547037207</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>4336.537043690556</v>
+        <v>2023.717287055593</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>4378.395358014256</v>
+        <v>2043.25116707332</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>4420.85261466081</v>
+        <v>2063.064553508379</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>4463.91836038339</v>
+        <v>2083.161901512249</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>4507.602337031472</v>
+        <v>2103.547757281353</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>4551.914486631837</v>
+        <v>2124.22676042819</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>4596.864956599177</v>
+        <v>2145.20364641295</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>4642.464105077835</v>
+        <v>2166.483249036324</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>4688.72250641607</v>
+        <v>2188.070502994166</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>4735.650956774169</v>
+        <v>2209.970446494612</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>4783.260479867528</v>
+        <v>2232.18822393818</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>4831.562332845594</v>
+        <v>2254.729088661278</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>4880.568012307516</v>
+        <v>2277.598405743508</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>4930.289260455027</v>
+        <v>2300.801654879013</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>4980.738071382884</v>
+        <v>2324.344433312012</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>5031.926697507031</v>
+        <v>2348.232458836615</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>5083.867656130267</v>
+        <v>2372.471572860792</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>5136.573736145034</v>
+        <v>2397.06774353435</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>5190.058004872591</v>
+        <v>2422.027068940542</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>5244.3338150375</v>
+        <v>2447.355780350834</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>5299.414811876055</v>
+        <v>2473.060245542159</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>5355.314940376886</v>
+        <v>2499.14697217588</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>5412.048452651561</v>
+        <v>2525.622611237395</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>5469.629915432639</v>
+        <v>2552.493960535232</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>5528.074217696143</v>
+        <v>2579.7679682582</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>5587.396578404911</v>
+        <v>2607.451736588959</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>5647.612554368885</v>
+        <v>2635.552525372147</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>5708.738048217756</v>
+        <v>2664.077755834953</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>5770.789316480863</v>
+        <v>2693.035014357736</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>5833.782977768617</v>
+        <v>2722.432056292022</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>5897.736021049186</v>
+        <v>2752.276809822954</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>5962.665814013298</v>
+        <v>2782.577379872872</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>6028.590111519607</v>
+        <v>2813.342052042484</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>6095.527064112053</v>
+        <v>2844.579296585625</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>6163.495226599989</v>
+        <v>2876.297772413329</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>6232.513566691179</v>
+        <v>2908.50633112255</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>6302.601473666533</v>
+        <v>2941.214021044382</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>6373.778767085012</v>
+        <v>2974.430091306339</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>6446.065705505879</v>
+        <v>3008.163995902743</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>6519.482995214588</v>
+        <v>3042.425397766808</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>6594.051798937674</v>
+        <v>3077.224172837582</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>6669.793744530814</v>
+        <v>3112.570414114381</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>6746.730933623288</v>
+        <v>3148.474435690868</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>6824.885950200763</v>
+        <v>3184.946776760356</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>6904.281869107301</v>
+        <v>3221.998205583407</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>6984.942264446205</v>
+        <v>3259.639723408229</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>7066.891217858008</v>
+        <v>3297.882568333737</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>7150.153326652766</v>
+        <v>3336.738219104624</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>7234.753711772326</v>
+        <v>3376.218398827086</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>7320.71802555697</v>
+        <v>3416.335078593253</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>7408.072459289386</v>
+        <v>3457.100481001713</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>7496.84375048752</v>
+        <v>3498.527083560843</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>7587.05918991637</v>
+        <v>3540.627621960974</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>7678.746628287292</v>
+        <v>3583.415093200738</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>7771.934482611871</v>
+        <v>3626.902758552207</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>7866.651742175884</v>
+        <v>3671.104146348746</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>7962.927974097338</v>
+        <v>3716.033054578757</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>8060.793328430912</v>
+        <v>3761.703553267759</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>8160.278542779663</v>
+        <v>3808.12998663051</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>8261.414946373201</v>
+        <v>3855.326974974161</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>8364.234463569977</v>
+        <v>3903.309416332656</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>8468.769616739755</v>
+        <v>3952.092487811887</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>8575.053528480765</v>
+        <v>4001.691646624357</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>8683.119923124465</v>
+        <v>4052.122630791418</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>8793.003127479482</v>
+        <v>4103.401459490425</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>8904.738070764528</v>
+        <v>4155.544433023447</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>9018.360283679011</v>
+        <v>4208.568132383539</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>9133.90589655841</v>
+        <v>4262.489418393924</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>9251.411636560337</v>
+        <v>4317.325430394823</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>9370.914823825848</v>
+        <v>4373.093584452063</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>9492.45336655961</v>
+        <v>4429.811571061152</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>9616.065754971258</v>
+        <v>4487.497352319921</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>9741.791054019437</v>
+        <v>4546.169158542404</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>11269.0873416727</v>
+        <v>5258.907426113928</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>12820.77188274453</v>
+        <v>5983.026878614116</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>14397.26821288152</v>
+        <v>6718.72516601138</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>15999.00542825815</v>
+        <v>7466.202533187139</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>17626.4180615545</v>
+        <v>8225.661762058766</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>19279.945941504</v>
+        <v>8997.3081060352</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>20960.03403534636</v>
+        <v>9781.349216494969</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>22667.13227352259</v>
+        <v>10577.99506097721</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>24401.69535595403</v>
+        <v>11387.45783277855</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>26164.18253925864</v>
+        <v>12209.95185165403</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>27955.05740426643</v>
+        <v>13045.69345532434</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>29774.78760320969</v>
+        <v>13894.90088149786</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>31623.8445859827</v>
+        <v>14757.79414012526</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>33502.70330488519</v>
+        <v>15634.59487561309</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>35411.84189728634</v>
+        <v>16525.52621873363</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>37351.74134567697</v>
+        <v>17430.8126279826</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>39322.88511460481</v>
+        <v>18350.67972014891</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>41325.75876402525</v>
+        <v>19285.35408987846</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>43360.84953864088</v>
+        <v>20235.06311803241</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>45428.64593284155</v>
+        <v>21200.0347686594</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>47529.63723091049</v>
+        <v>22180.4973744249</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>49664.31302220801</v>
+        <v>23176.67941036374</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>51833.16269110757</v>
+        <v>24188.8092558502</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>54036.67488151375</v>
+        <v>25217.11494470642</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>56275.33693586149</v>
+        <v>26261.82390340203</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>58549.6343085655</v>
+        <v>27323.16267733057</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>60860.04995396212</v>
+        <v>28401.35664518233</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>63207.06368886708</v>
+        <v>29496.62972147131</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>65591.15152995566</v>
+        <v>30609.20404731265</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>68012.78500626089</v>
+        <v>31739.29966958843</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>70472.4304471759</v>
+        <v>32887.13420868209</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>72970.54824644605</v>
+        <v>34052.92251500816</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>75507.59210273482</v>
+        <v>35236.8763146096</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>78084.00823745217</v>
+        <v>36439.20384414436</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>80700.23459064237</v>
+        <v>37660.10947563311</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>83356.69999583773</v>
+        <v>38899.79333139095</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>86053.82333489732</v>
+        <v>40158.45088961876</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>88792.01267396877</v>
+        <v>41436.27258118543</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>91571.66438182362</v>
+        <v>42733.44337818437</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>94393.16223193856</v>
+        <v>44050.14237490467</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>97256.87648981383</v>
+        <v>45386.54236191314</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>100163.1629871388</v>
+        <v>46742.80939399814</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>103112.3621845363</v>
+        <v>48119.10235278363</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>106104.7982247302</v>
+        <v>49515.57250487412</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>109140.777978107</v>
+        <v>50932.36305644992</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>112220.5900827439</v>
+        <v>52369.60870528052</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>115344.5039811009</v>
+        <v>53827.43519118045</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>118512.7689556667</v>
+        <v>55305.9588459778</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>121725.6131659653</v>
+        <v>56805.28614411716</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>124983.2426894172</v>
+        <v>58325.51325506138</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>128285.8405686437</v>
+        <v>59866.72559870042</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>131633.5658678871</v>
+        <v>61428.997405014</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>135026.5527412945</v>
+        <v>63012.39127927079</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>138464.9095158812</v>
+        <v>64616.95777407794</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>141948.7177920468</v>
+        <v>66242.73496962184</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>145324.7012019424</v>
+        <v>67818.1938942398</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>148744.1811804561</v>
+        <v>69413.95121754622</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>152207.1491827727</v>
+        <v>71030.00295196065</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>155713.5676072092</v>
+        <v>72666.33155003098</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>159263.369051055</v>
+        <v>74322.90555715903</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>162856.4556001505</v>
+        <v>75999.67928007028</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>166492.6981550569</v>
+        <v>77696.59247235992</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>170171.9357966254</v>
+        <v>79413.57003842523</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>173893.9751937287</v>
+        <v>81150.52175707347</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>177658.5900558545</v>
+        <v>82907.34202606547</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>181465.5206331761</v>
+        <v>84683.9096288156</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>185314.473266634</v>
+        <v>86480.08752442923</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>189205.1199904435</v>
+        <v>88295.722662207</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>193137.0981893371</v>
+        <v>90130.64582169075</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>197110.0103127095</v>
+        <v>91984.67147926454</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>201117.508420847</v>
+        <v>93854.83726306201</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>205164.9756118671</v>
+        <v>95743.65528553807</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>209251.9087960239</v>
+        <v>97650.89077147791</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>213377.7694479153</v>
+        <v>99576.29240902721</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>217541.9836316701</v>
+        <v>101519.5923614461</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>221743.9420924904</v>
+        <v>103480.506309829</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>225983.0004154637</v>
+        <v>105458.7335272165</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>230258.4792523416</v>
+        <v>107453.9569844262</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>234569.6646167621</v>
+        <v>109465.8434878224</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>238915.8082481599</v>
+        <v>111494.0438491414</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>243893.5973315552</v>
+        <v>114588.4032606042</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>248910.1172188716</v>
+        <v>117707.7703469473</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>253964.4552381419</v>
+        <v>120851.6359730299</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>259055.6642215748</v>
+        <v>124019.4718574335</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>264182.7633524797</v>
+        <v>127210.7311536473</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>269344.7390863461</v>
+        <v>130424.8490773414</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>274540.5461444222</v>
+        <v>133661.2435786012</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>279769.1085778658</v>
+        <v>136919.3160578131</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>285029.3209002855</v>
+        <v>140198.4521237175</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>290320.0492862376</v>
+        <v>143498.0223919673</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>296365.6317904362</v>
+        <v>146614.5988165097</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>302444.5774613823</v>
+        <v>149748.8571184404</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>308555.5854018377</v>
+        <v>152900.1532198043</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>314697.3312077824</v>
+        <v>156067.8317673054</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>320868.4687038809</v>
+        <v>159251.2270320888</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>327067.6317317041</v>
+        <v>162449.6638347981</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>333293.4359861436</v>
+        <v>165662.4584932923</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>339544.4808952351</v>
+        <v>168888.9197902581</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>345819.3515384331</v>
+        <v>172128.3499578399</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>352116.6205981732</v>
+        <v>175380.0456762708</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>358127.6445710421</v>
+        <v>177326.6279042436</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>364156.4736483329</v>
+        <v>179276.7299020459</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>370201.6883497217</v>
+        <v>181229.7795009704</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>376261.8639492829</v>
+        <v>183185.1992830441</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>382335.5723948981</v>
+        <v>185142.4071040628</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>388421.384227052</v>
+        <v>187100.8166108992</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>394517.8704912833</v>
+        <v>189059.8377508747</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>400623.6046384587</v>
+        <v>191018.8772709639</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>406737.1644070022</v>
+        <v>192977.3392046214</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>412857.1336811316</v>
+        <v>194934.6253440228</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>419483.5074064078</v>
+        <v>197057.2700579863</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>426115.7083849424</v>
+        <v>199178.2790629118</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>432752.3201918332</v>
+        <v>201297.0402272309</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>439391.9427412502</v>
+        <v>203412.941918907</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>446033.1940917144</v>
+        <v>205525.3734260121</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>452674.7121855491</v>
+        <v>207633.7253490254</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>459315.1565158325</v>
+        <v>209737.3899631035</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>465953.2097141996</v>
+        <v>211835.7615487657</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>472587.5790528915</v>
+        <v>213928.2366896599</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>479216.9978544998</v>
+        <v>216014.2145363317</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>485840.2268029615</v>
+        <v>218093.0970352158</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>492456.0551494446</v>
+        <v>220164.289122392</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>499063.3018069362</v>
+        <v>222227.1988820267</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>505660.8163274819</v>
+        <v>224281.2376698153</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>512247.4797562654</v>
+        <v>226325.8202021994</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>518822.2053569474</v>
+        <v>228360.3646126096</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>525383.9392029736</v>
+        <v>230384.2924765119</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>531931.6606299089</v>
+        <v>232397.0288075902</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>538464.3825442366</v>
+        <v>234398.002027992</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>544981.1515845009</v>
+        <v>236386.6439161769</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>551481.0481311845</v>
+        <v>238362.3895365563</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>557963.1861622578</v>
+        <v>240324.6771557651</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>564426.7129519765</v>
+        <v>242272.9481510778</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>570870.808611178</v>
+        <v>244206.6469171465</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>577294.6854680941</v>
+        <v>246125.2207778991</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>583697.587289509</v>
+        <v>248028.1199110678</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>590078.7883429889</v>
+        <v>249914.7972934286</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>596437.5923018405</v>
+        <v>251784.7086753774</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>602773.3309954935</v>
+        <v>253637.3125939708</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>609085.363009043</v>
+        <v>255472.0704339701</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>615373.0721368243</v>
+        <v>257288.4465467467</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>621635.8656960479</v>
+        <v>259085.9084371259</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>627873.1727077279</v>
+        <v>260863.9270283263</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>634084.4419533613</v>
+        <v>262621.9770150962</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>640269.1399170578</v>
+        <v>264359.5373149389</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>646426.7486240705</v>
+        <v>266076.0916269277</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>652556.7633879283</v>
+        <v>267771.1291070528</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>658658.6904795596</v>
+        <v>269444.1451682653</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>664732.0447330097</v>
+        <v>271094.6424124333</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>670776.347103458</v>
+        <v>272722.1317002412</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_TH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_TH.xlsx
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>688.4253682450264</v>
+        <v>688.4253682450263</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>690.0892676777543</v>
+        <v>690.0892676777544</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>690.9391870861792</v>
+        <v>690.939187086179</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>691.8013144116919</v>
+        <v>691.8013144116918</v>
       </c>
     </row>
     <row r="9">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>693.5628916739911</v>
+        <v>693.5628916739912</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>694.4626971955337</v>
+        <v>694.4626971955336</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>695.3754218711416</v>
+        <v>695.3754218711413</v>
       </c>
     </row>
     <row r="13">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>697.2403676685362</v>
+        <v>697.2403676685365</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>698.1929647805858</v>
+        <v>698.192964780586</v>
       </c>
     </row>
     <row r="16">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>700.1393672756097</v>
+        <v>700.1393672756099</v>
       </c>
     </row>
     <row r="18">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>702.1420255082003</v>
+        <v>702.1420255082002</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>706.3226046087615</v>
+        <v>706.3226046087616</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>707.4054841041894</v>
+        <v>707.4054841041892</v>
       </c>
     </row>
     <row r="25">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>709.6180372544508</v>
+        <v>709.6180372544505</v>
       </c>
     </row>
     <row r="27">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>711.8944686937656</v>
+        <v>711.8944686937652</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>713.0572077616273</v>
+        <v>713.0572077616274</v>
       </c>
     </row>
     <row r="30">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>715.4328984925473</v>
+        <v>715.4328984925476</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>716.6463262946916</v>
+        <v>716.6463262946913</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>717.8771320164644</v>
+        <v>717.8771320164643</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>719.125562098213</v>
+        <v>719.1255620982128</v>
       </c>
     </row>
     <row r="35">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>721.6762982974718</v>
+        <v>721.6762982974716</v>
       </c>
     </row>
     <row r="37">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>724.3005758423117</v>
+        <v>724.3005758423116</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>725.6409459929401</v>
+        <v>725.64094599294</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>727.0004928022551</v>
+        <v>727.0004928022553</v>
       </c>
     </row>
     <row r="41">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>734.0955098317934</v>
+        <v>734.0955098317936</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>735.5759502985686</v>
+        <v>735.5759502985685</v>
       </c>
     </row>
     <row r="47">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>738.6006027691278</v>
+        <v>738.600602769128</v>
       </c>
     </row>
     <row r="49">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>743.3015556280783</v>
+        <v>743.3015556280782</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>744.9135078919974</v>
+        <v>744.9135078919968</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>746.5484739856431</v>
+        <v>746.5484739856428</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>748.2067783965774</v>
+        <v>748.2067783965772</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>749.8887500824331</v>
+        <v>749.8887500824335</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>751.5947225300224</v>
+        <v>751.5947225300222</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>753.3250338151735</v>
+        <v>753.325033815174</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>755.0800266633225</v>
+        <v>755.0800266633227</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>756.8600485108444</v>
+        <v>756.8600485108442</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>758.6654515671531</v>
+        <v>758.6654515671537</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>760.4965928775715</v>
+        <v>760.4965928775719</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>762.3538343869781</v>
+        <v>762.3538343869782</v>
       </c>
     </row>
     <row r="63">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>768.0858544100593</v>
+        <v>768.0858544100591</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>770.0512164275165</v>
+        <v>770.051216427517</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>772.0445641452168</v>
+        <v>772.044564145217</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>774.066290286901</v>
+        <v>774.0662902869012</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>776.1167929440719</v>
+        <v>776.1167929440718</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>778.1964756462415</v>
+        <v>778.1964756462419</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>780.3057474320516</v>
+        <v>780.3057474320515</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>782.4450229212791</v>
+        <v>782.4450229212788</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>784.614722387736</v>
+        <v>784.6147223877363</v>
       </c>
     </row>
     <row r="74">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>789.04710306154</v>
+        <v>789.0471030615399</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>791.31065375558</v>
+        <v>791.3106537555799</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>793.6063675525013</v>
+        <v>793.6063675525016</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>795.9346941220099</v>
+        <v>795.9346941220101</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>798.296089244747</v>
+        <v>798.2960892447471</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>800.6910148918125</v>
+        <v>800.6910148918128</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>803.1199393052816</v>
+        <v>803.1199393052819</v>
       </c>
     </row>
     <row r="82">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>810.6154833488745</v>
+        <v>810.615483348874</v>
       </c>
     </row>
     <row r="85">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>815.7913806694894</v>
+        <v>815.7913806694893</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>818.4344923433798</v>
+        <v>818.43449234338</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>821.1150630456229</v>
+        <v>821.1150630456223</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>823.8336142095311</v>
+        <v>823.8336142095313</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>826.5906743114991</v>
+        <v>826.5906743114989</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>829.3867789623633</v>
+        <v>829.3867789623631</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>832.2224709999452</v>
+        <v>832.2224709999456</v>
       </c>
     </row>
     <row r="93">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>838.0148252851186</v>
+        <v>838.0148252851189</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>840.9726101930382</v>
+        <v>840.9726101930386</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>843.9722280019877</v>
+        <v>843.9722280019878</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>847.014259115486</v>
+        <v>847.0142591154859</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>850.099291745174</v>
+        <v>850.0992917451738</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>853.2279220121924</v>
+        <v>853.2279220121927</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>856.4007540499078</v>
+        <v>856.4007540499076</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>859.6184001080171</v>
+        <v>859.6184001080167</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>862.8814806580549</v>
+        <v>862.881480658055</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>866.1906245003356</v>
+        <v>866.1906245003355</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>869.5464688723432</v>
+        <v>869.546468872343</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>872.9496595586174</v>
+        <v>872.9496595586177</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>876.4008510021484</v>
+        <v>876.4008510021483</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>879.9007064173203</v>
+        <v>879.9007064173202</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>883.4498979044321</v>
+        <v>883.449897904432</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>887.0491065658259</v>
+        <v>887.049106565826</v>
       </c>
     </row>
     <row r="110">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>894.4003455393844</v>
+        <v>894.4003455393845</v>
       </c>
     </row>
     <row r="112">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>901.9600567153442</v>
+        <v>901.9600567153443</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>905.8198911941532</v>
+        <v>905.8198911941533</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>909.7340252192444</v>
+        <v>909.7340252192442</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>913.7032063016233</v>
+        <v>913.7032063016236</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>917.7281919456921</v>
+        <v>917.7281919456923</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>921.809749781554</v>
+        <v>921.8097497815538</v>
       </c>
     </row>
     <row r="119">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>930.1457039855391</v>
+        <v>930.1457039855389</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>934.4016874615838</v>
+        <v>934.4016874615839</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>938.7174176244038</v>
+        <v>938.7174176244037</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>943.0937147893439</v>
+        <v>943.0937147893445</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>947.5314102353017</v>
+        <v>947.5314102353019</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>952.0313463521993</v>
+        <v>952.0313463521994</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>956.5943767908635</v>
+        <v>956.5943767908632</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>961.2213666153514</v>
+        <v>961.2213666153518</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>965.9131924578114</v>
+        <v>965.913192457811</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>970.6707426759281</v>
+        <v>970.6707426759282</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>975.4949175130424</v>
+        <v>975.4949175130428</v>
       </c>
     </row>
     <row r="131">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>985.3468024258217</v>
+        <v>985.3468024258218</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>990.3763738962712</v>
+        <v>990.3763738962709</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>995.4762931153948</v>
+        <v>995.4762931153955</v>
       </c>
     </row>
     <row r="135">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>1074.82480088522</v>
+        <v>1074.824800885221</v>
       </c>
     </row>
     <row r="149">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>1100.466657379706</v>
+        <v>1100.466657379707</v>
       </c>
     </row>
     <row r="153">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>1141.686031238498</v>
+        <v>1141.686031238499</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>1148.89385974645</v>
+        <v>1148.893859746449</v>
       </c>
     </row>
     <row r="160">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>1171.123355850799</v>
+        <v>1171.123355850798</v>
       </c>
     </row>
     <row r="163">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>1235.096163942449</v>
+        <v>1235.09616394245</v>
       </c>
     </row>
     <row r="171">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>1260.961600104367</v>
+        <v>1260.961600104368</v>
       </c>
     </row>
     <row r="174">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>1278.80793216046</v>
+        <v>1278.807932160461</v>
       </c>
     </row>
     <row r="176">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1452.063724024611</v>
+        <v>1452.06372402461</v>
       </c>
     </row>
     <row r="193">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>1511.225796489862</v>
+        <v>1511.225796489861</v>
       </c>
     </row>
     <row r="198">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>1587.820025942908</v>
+        <v>1587.820025942907</v>
       </c>
     </row>
     <row r="204">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>1628.564432062128</v>
+        <v>1628.564432062127</v>
       </c>
     </row>
     <row r="207">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>1745.871940143234</v>
+        <v>1745.871940143235</v>
       </c>
     </row>
     <row r="215">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>1793.336946388364</v>
+        <v>1793.336946388363</v>
       </c>
     </row>
     <row r="218">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>1826.102340656166</v>
+        <v>1826.102340656167</v>
       </c>
     </row>
     <row r="220">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>1877.002127619797</v>
+        <v>1877.002127619796</v>
       </c>
     </row>
     <row r="223">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>1912.14505466601</v>
+        <v>1912.145054666009</v>
       </c>
     </row>
     <row r="225">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>1966.749451536548</v>
+        <v>1966.749451536547</v>
       </c>
     </row>
     <row r="228">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>2004.458547037207</v>
+        <v>2004.458547037208</v>
       </c>
     </row>
     <row r="230">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>2043.25116707332</v>
+        <v>2043.251167073319</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>2063.064553508379</v>
+        <v>2063.064553508378</v>
       </c>
     </row>
     <row r="233">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>2254.729088661278</v>
+        <v>2254.729088661277</v>
       </c>
     </row>
     <row r="242">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>2300.801654879013</v>
+        <v>2300.801654879012</v>
       </c>
     </row>
     <row r="244">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>2372.471572860792</v>
+        <v>2372.471572860791</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>2397.06774353435</v>
+        <v>2397.067743534349</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>2422.027068940542</v>
+        <v>2422.027068940543</v>
       </c>
     </row>
     <row r="249">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>2607.451736588959</v>
+        <v>2607.451736588958</v>
       </c>
     </row>
     <row r="256">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>2693.035014357736</v>
+        <v>2693.035014357737</v>
       </c>
     </row>
     <row r="259">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>2752.276809822954</v>
+        <v>2752.276809822953</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>2782.577379872872</v>
+        <v>2782.577379872871</v>
       </c>
     </row>
     <row r="262">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>2876.297772413329</v>
+        <v>2876.29777241333</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>2908.50633112255</v>
+        <v>2908.506331122551</v>
       </c>
     </row>
     <row r="266">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>3112.570414114381</v>
+        <v>3112.57041411438</v>
       </c>
     </row>
     <row r="272">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>3221.998205583407</v>
+        <v>3221.998205583408</v>
       </c>
     </row>
     <row r="275">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>3336.738219104624</v>
+        <v>3336.738219104625</v>
       </c>
     </row>
     <row r="278">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>3540.627621960974</v>
+        <v>3540.627621960973</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>3583.415093200738</v>
+        <v>3583.415093200737</v>
       </c>
     </row>
     <row r="284">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>3671.104146348746</v>
+        <v>3671.104146348745</v>
       </c>
     </row>
     <row r="286">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>3855.326974974161</v>
+        <v>3855.32697497416</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>3903.309416332656</v>
+        <v>3903.309416332657</v>
       </c>
     </row>
     <row r="291">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>4103.401459490425</v>
+        <v>4103.401459490426</v>
       </c>
     </row>
     <row r="295">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>4208.568132383539</v>
+        <v>4208.56813238354</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>4262.489418393924</v>
+        <v>4262.489418393925</v>
       </c>
     </row>
     <row r="298">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>4373.093584452063</v>
+        <v>4373.093584452062</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>4429.811571061152</v>
+        <v>4429.811571061151</v>
       </c>
     </row>
     <row r="301">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>5258.907426113928</v>
+        <v>5258.907426116883</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>5983.026878614116</v>
+        <v>5983.026878619911</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>6718.72516601138</v>
+        <v>6718.725166019906</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>7466.202533187139</v>
+        <v>7466.20253319828</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>8225.661762058766</v>
+        <v>8225.661762072401</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>8997.3081060352</v>
+        <v>8997.308106051221</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>9781.349216494969</v>
+        <v>9781.349216513248</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>10577.99506097721</v>
+        <v>10577.9950609976</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>11387.45783277855</v>
+        <v>11387.45783280094</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>12209.95185165403</v>
+        <v>12209.95185167832</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>13045.69345532434</v>
+        <v>13045.69345535037</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>13894.90088149786</v>
+        <v>13894.90088152549</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>14757.79414012526</v>
+        <v>14757.79414015437</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>15634.59487561309</v>
+        <v>15634.59487564353</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>16525.52621873363</v>
+        <v>16525.52621876527</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>17430.8126279826</v>
+        <v>17430.81262801529</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>18350.67972014891</v>
+        <v>18350.6797201825</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>19285.35408987846</v>
+        <v>19285.3540899128</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>20235.06311803241</v>
+        <v>20235.06311806737</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>21200.0347686594</v>
+        <v>21200.0347686948</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>22180.4973744249</v>
+        <v>22180.49737446058</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>23176.67941036374</v>
+        <v>23176.67941039958</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>24188.8092558502</v>
+        <v>24188.80925588602</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>25217.11494470642</v>
+        <v>25217.11494474204</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>26261.82390340203</v>
+        <v>26261.82390343731</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>27323.16267733057</v>
+        <v>27323.16267736533</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>28401.35664518233</v>
+        <v>28401.3566452164</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>29496.62972147131</v>
+        <v>29496.6297215045</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>30609.20404731265</v>
+        <v>30609.2040473448</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>31739.29966958843</v>
+        <v>31739.29966961939</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>32887.13420868209</v>
+        <v>32887.13420871166</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>34052.92251500816</v>
+        <v>34052.92251503614</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>35236.8763146096</v>
+        <v>35236.87631463582</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>36439.20384414436</v>
+        <v>36439.20384416865</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>37660.10947563311</v>
+        <v>37660.10947565528</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>38899.79333139095</v>
+        <v>38899.7933314108</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>40158.45088961876</v>
+        <v>40158.4508896361</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>41436.27258118543</v>
+        <v>41436.27258120011</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>42733.44337818437</v>
+        <v>42733.44337819616</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>44050.14237490467</v>
+        <v>44050.1423749134</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>45386.54236191314</v>
+        <v>45386.54236191857</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>46742.80939399814</v>
+        <v>46742.80939400015</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>48119.10235278363</v>
+        <v>48119.10235278197</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>49515.57250487412</v>
+        <v>49515.57250486861</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>50932.36305644992</v>
+        <v>50932.36305644038</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>52369.60870528052</v>
+        <v>52369.60870526678</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>53827.43519118045</v>
+        <v>53827.43519116227</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>55305.9588459778</v>
+        <v>55305.95884595496</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>56805.28614411716</v>
+        <v>56805.28614408955</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>58325.51325506138</v>
+        <v>58325.51325502875</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>59866.72559870042</v>
+        <v>59866.7255986626</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>61428.997405014</v>
+        <v>61428.99740497082</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>63012.39127927079</v>
+        <v>63012.39127922204</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>64616.95777407794</v>
+        <v>64616.95777402345</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>66242.73496962184</v>
+        <v>66242.73496956141</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>67818.1938942398</v>
+        <v>67818.19389417376</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>69413.95121754622</v>
+        <v>69413.95121747443</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>71030.00295196065</v>
+        <v>71030.00295188298</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>72666.33155003098</v>
+        <v>72666.33154994732</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>74322.90555715903</v>
+        <v>74322.90555706917</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>75999.67928007028</v>
+        <v>75999.67927997409</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>77696.59247235992</v>
+        <v>77696.59247225731</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>79413.57003842523</v>
+        <v>79413.57003831599</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>81150.52175707347</v>
+        <v>81150.52175695749</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>82907.34202606547</v>
+        <v>82907.34202594272</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>84683.9096288156</v>
+        <v>84683.9096286859</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>86480.08752442923</v>
+        <v>86480.08752429252</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>88295.722662207</v>
+        <v>88295.72266206314</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>90130.64582169075</v>
+        <v>90130.64582153964</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>91984.67147926454</v>
+        <v>91984.67147910614</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>93854.83726306201</v>
+        <v>93854.83726289621</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>95743.65528553807</v>
+        <v>95743.65528536488</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>97650.89077147791</v>
+        <v>97650.89077129726</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>99576.29240902721</v>
+        <v>99576.29240883898</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>101519.5923614461</v>
+        <v>101519.5923612503</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>103480.506309829</v>
+        <v>103480.5063096255</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>105458.7335272165</v>
+        <v>105458.7335270054</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>107453.9569844262</v>
+        <v>107453.9569842075</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>109465.8434878224</v>
+        <v>109465.843487596</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>111494.0438491414</v>
+        <v>111494.0438489073</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>114588.4032606042</v>
+        <v>114588.4032603516</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>117707.7703469473</v>
+        <v>117707.7703466761</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>120851.6359730299</v>
+        <v>120851.6359727399</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>124019.4718574335</v>
+        <v>124019.4718571248</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>127210.7311536473</v>
+        <v>127210.7311533197</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>130424.8490773414</v>
+        <v>130424.849076995</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>133661.2435786012</v>
+        <v>133661.243578236</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>136919.3160578131</v>
+        <v>136919.3160574291</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>140198.4521237175</v>
+        <v>140198.4521233149</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>143498.0223919673</v>
+        <v>143498.0223915462</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>146614.5988165097</v>
+        <v>146614.5988160722</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>149748.8571184404</v>
+        <v>149748.8571179867</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>152900.1532198043</v>
+        <v>152900.1532193346</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>156067.8317673054</v>
+        <v>156067.8317668201</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>159251.2270320888</v>
+        <v>159251.2270315879</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>162449.6638347981</v>
+        <v>162449.6638342822</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>165662.4584932923</v>
+        <v>165662.4584927617</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>168888.9197902581</v>
+        <v>168888.9197897131</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>172128.3499578399</v>
+        <v>172128.349957281</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>175380.0456762708</v>
+        <v>175380.0456756985</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>177326.6279042436</v>
+        <v>177326.6279036682</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>179276.7299020459</v>
+        <v>179276.7299014675</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>181229.7795009704</v>
+        <v>181229.7795003892</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>183185.1992830441</v>
+        <v>183185.19928246</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>185142.4071040628</v>
+        <v>185142.4071034759</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>187100.8166108992</v>
+        <v>187100.8166103096</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>189059.8377508747</v>
+        <v>189059.8377502822</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>191018.8772709639</v>
+        <v>191018.8772703687</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>192977.3392046214</v>
+        <v>192977.3392040233</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>194934.6253440228</v>
+        <v>194934.6253434219</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>197057.2700579863</v>
+        <v>197057.2700573823</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>199178.2790629118</v>
+        <v>199178.2790623046</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>201297.0402272309</v>
+        <v>201297.0402266206</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>203412.941918907</v>
+        <v>203412.9419182935</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>205525.3734260121</v>
+        <v>205525.3734253955</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>207633.7253490254</v>
+        <v>207633.7253484055</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>209737.3899631035</v>
+        <v>209737.3899624803</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>211835.7615487657</v>
+        <v>211835.7615481392</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>213928.2366896599</v>
+        <v>213928.2366890299</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>216014.2145363317</v>
+        <v>216014.214535698</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>218093.0970352158</v>
+        <v>218093.0970345782</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>220164.289122392</v>
+        <v>220164.2891217503</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>222227.1988820267</v>
+        <v>222227.1988813806</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>224281.2376698153</v>
+        <v>224281.2376691644</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>226325.8202021994</v>
+        <v>226325.8202015434</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>228360.3646126096</v>
+        <v>228360.3646119481</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>230384.2924765119</v>
+        <v>230384.2924758443</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>232397.0288075902</v>
+        <v>232397.0288069161</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>234398.002027992</v>
+        <v>234398.0020273108</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>236386.6439161769</v>
+        <v>236386.6439154879</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>238362.3895365563</v>
+        <v>238362.3895358589</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>240324.6771557651</v>
+        <v>240324.6771550585</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>242272.9481510778</v>
+        <v>242272.9481503613</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>244206.6469171465</v>
+        <v>244206.6469164191</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>246125.2207778991</v>
+        <v>246125.22077716</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>248028.1199110678</v>
+        <v>248028.1199103159</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>249914.7972934286</v>
+        <v>249914.7972926628</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>251784.7086753774</v>
+        <v>251784.7086745967</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>253637.3125939708</v>
+        <v>253637.3125931741</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>255472.0704339701</v>
+        <v>255472.0704331561</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>257288.4465467467</v>
+        <v>257288.4465459142</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>259085.9084371259</v>
+        <v>259085.9084362737</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>260863.9270283263</v>
+        <v>260863.9270274529</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>262621.9770150962</v>
+        <v>262621.9770142004</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>264359.5373149389</v>
+        <v>264359.5373140191</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>266076.0916269277</v>
+        <v>266076.0916259826</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>267771.1291070528</v>
+        <v>267771.1291060809</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>269444.1451682653</v>
+        <v>269444.1451672653</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>271094.6424124333</v>
+        <v>271094.6424114036</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>272722.1317002412</v>
+        <v>272722.1316991805</v>
       </c>
     </row>
   </sheetData>
